--- a/BackTest/2019-11-02 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-02 BackTest ZIL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,22 +394,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>high_check</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -448,12 +448,14 @@
         <v>41293.3248</v>
       </c>
       <c r="G2" t="n">
-        <v>7.285666666666669</v>
+        <v>1762892.4908</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -481,12 +483,14 @@
         <v>65711.41650000001</v>
       </c>
       <c r="G3" t="n">
-        <v>7.28666666666667</v>
+        <v>1762892.4908</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -514,14 +518,20 @@
         <v>11525.1471</v>
       </c>
       <c r="G4" t="n">
-        <v>7.285666666666669</v>
+        <v>1774417.6379</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.2</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -547,15 +557,25 @@
         <v>36370.4165</v>
       </c>
       <c r="G5" t="n">
-        <v>7.284833333333336</v>
+        <v>1810788.0544</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -580,15 +600,23 @@
         <v>83531.4743</v>
       </c>
       <c r="G6" t="n">
-        <v>7.288333333333336</v>
+        <v>1894319.5287</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -613,12 +641,14 @@
         <v>154186.9783</v>
       </c>
       <c r="G7" t="n">
-        <v>7.292166666666669</v>
+        <v>2048506.507</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -646,14 +676,20 @@
         <v>31426.2422</v>
       </c>
       <c r="G8" t="n">
-        <v>7.296000000000002</v>
+        <v>2017080.2648</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.41</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -679,15 +715,25 @@
         <v>79477.75290000001</v>
       </c>
       <c r="G9" t="n">
-        <v>7.299833333333335</v>
+        <v>2096558.0177</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -712,15 +758,23 @@
         <v>706251.5220999999</v>
       </c>
       <c r="G10" t="n">
-        <v>7.304166666666668</v>
+        <v>2802809.539799999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -745,15 +799,23 @@
         <v>35403.8643</v>
       </c>
       <c r="G11" t="n">
-        <v>7.305000000000001</v>
+        <v>2767405.675499999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -778,15 +840,23 @@
         <v>16045.608</v>
       </c>
       <c r="G12" t="n">
-        <v>7.306166666666667</v>
+        <v>2767405.675499999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -811,15 +881,23 @@
         <v>194871.3007</v>
       </c>
       <c r="G13" t="n">
-        <v>7.3115</v>
+        <v>2962276.976199999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -844,15 +922,23 @@
         <v>56904.5363</v>
       </c>
       <c r="G14" t="n">
-        <v>7.316</v>
+        <v>2905372.4399</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -877,15 +963,23 @@
         <v>274399.828</v>
       </c>
       <c r="G15" t="n">
-        <v>7.321499999999999</v>
+        <v>3179772.267899999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -910,15 +1004,23 @@
         <v>256481.2336</v>
       </c>
       <c r="G16" t="n">
-        <v>7.325333333333333</v>
+        <v>3436253.501499999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -943,15 +1045,23 @@
         <v>359240.9884</v>
       </c>
       <c r="G17" t="n">
-        <v>7.3305</v>
+        <v>3795494.489899999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -976,15 +1086,23 @@
         <v>13228.1553</v>
       </c>
       <c r="G18" t="n">
-        <v>7.3365</v>
+        <v>3782266.334599999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1009,15 +1127,23 @@
         <v>75361.0205</v>
       </c>
       <c r="G19" t="n">
-        <v>7.343166666666667</v>
+        <v>3857627.355099999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1042,15 +1168,23 @@
         <v>34777.4225</v>
       </c>
       <c r="G20" t="n">
-        <v>7.349833333333335</v>
+        <v>3857627.355099999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1075,15 +1209,23 @@
         <v>30391.4766</v>
       </c>
       <c r="G21" t="n">
-        <v>7.357833333333335</v>
+        <v>3888018.8317</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1108,21 +1250,23 @@
         <v>373161.5658</v>
       </c>
       <c r="G22" t="n">
-        <v>7.366833333333334</v>
+        <v>4261180.397499999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7.959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
+        <v>7.41</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1147,23 +1291,21 @@
         <v>162243.7016</v>
       </c>
       <c r="G23" t="n">
-        <v>7.374833333333333</v>
+        <v>4098936.695899999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>7.969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -1190,23 +1332,21 @@
         <v>245728.0021</v>
       </c>
       <c r="G24" t="n">
-        <v>7.382000000000001</v>
+        <v>4344664.697999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="J24" t="n">
-        <v>7.917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1233,21 +1373,21 @@
         <v>88554.7064</v>
       </c>
       <c r="G25" t="n">
-        <v>7.389</v>
+        <v>4256109.991599999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>7.67</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1274,23 +1414,21 @@
         <v>145654.5804</v>
       </c>
       <c r="G26" t="n">
-        <v>7.393333333333334</v>
+        <v>4110455.4112</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>7.938</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1317,23 +1455,21 @@
         <v>214308.19</v>
       </c>
       <c r="G27" t="n">
-        <v>7.395833333333333</v>
+        <v>3896147.2212</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>7.762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1360,21 +1496,21 @@
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>7.400833333333334</v>
+        <v>3896158.2212</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1401,23 +1537,21 @@
         <v>387505.1576</v>
       </c>
       <c r="G29" t="n">
-        <v>7.404166666666667</v>
+        <v>3508653.0636</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>7.659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -1444,21 +1578,21 @@
         <v>91.125</v>
       </c>
       <c r="G30" t="n">
-        <v>7.407666666666668</v>
+        <v>3508744.1886</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1485,25 +1619,21 @@
         <v>4278.616</v>
       </c>
       <c r="G31" t="n">
-        <v>7.410000000000001</v>
+        <v>3508744.1886</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -1530,25 +1660,21 @@
         <v>25520.914</v>
       </c>
       <c r="G32" t="n">
-        <v>7.414166666666668</v>
+        <v>3534265.102599999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -1575,25 +1701,21 @@
         <v>27222.2017</v>
       </c>
       <c r="G33" t="n">
-        <v>7.417500000000001</v>
+        <v>3507042.900899999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -1620,25 +1742,21 @@
         <v>8597.108399999999</v>
       </c>
       <c r="G34" t="n">
-        <v>7.422166666666668</v>
+        <v>3515640.009299999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -1665,25 +1783,21 @@
         <v>3993.6069</v>
       </c>
       <c r="G35" t="n">
-        <v>7.425500000000001</v>
+        <v>3511646.402399999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -1710,23 +1824,21 @@
         <v>18183.627</v>
       </c>
       <c r="G36" t="n">
-        <v>7.422833333333335</v>
+        <v>3493462.775399999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="J36" t="n">
-        <v>7.659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -1753,21 +1865,21 @@
         <v>5123</v>
       </c>
       <c r="G37" t="n">
-        <v>7.420833333333335</v>
+        <v>3498585.775399999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>7.23</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -1794,25 +1906,21 @@
         <v>164813.9681</v>
       </c>
       <c r="G38" t="n">
-        <v>7.418500000000003</v>
+        <v>3333771.807299999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -1839,25 +1947,21 @@
         <v>77989.9474</v>
       </c>
       <c r="G39" t="n">
-        <v>7.416000000000002</v>
+        <v>3255781.859899999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -1884,25 +1988,21 @@
         <v>72071.7966</v>
       </c>
       <c r="G40" t="n">
-        <v>7.41366666666667</v>
+        <v>3255781.859899999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -1929,25 +2029,21 @@
         <v>138497.7892</v>
       </c>
       <c r="G41" t="n">
-        <v>7.416500000000002</v>
+        <v>3394279.649099999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1974,23 +2070,21 @@
         <v>2702.7</v>
       </c>
       <c r="G42" t="n">
-        <v>7.415833333333335</v>
+        <v>3394279.649099999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -2017,23 +2111,21 @@
         <v>2702.7</v>
       </c>
       <c r="G43" t="n">
-        <v>7.415666666666668</v>
+        <v>3394279.649099999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -2060,23 +2152,21 @@
         <v>3962.9542</v>
       </c>
       <c r="G44" t="n">
-        <v>7.415666666666668</v>
+        <v>3398242.603299999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -2103,23 +2193,21 @@
         <v>23259.2475</v>
       </c>
       <c r="G45" t="n">
-        <v>7.415666666666668</v>
+        <v>3398242.603299999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -2146,23 +2234,21 @@
         <v>132299.1629</v>
       </c>
       <c r="G46" t="n">
-        <v>7.415666666666668</v>
+        <v>3398242.603299999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -2189,19 +2275,21 @@
         <v>39211.601</v>
       </c>
       <c r="G47" t="n">
-        <v>7.413666666666668</v>
+        <v>3359031.002299999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -2228,19 +2316,21 @@
         <v>18995.3633</v>
       </c>
       <c r="G48" t="n">
-        <v>7.410666666666668</v>
+        <v>3340035.639</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M48" t="n">
@@ -2267,19 +2357,21 @@
         <v>10427.3859</v>
       </c>
       <c r="G49" t="n">
-        <v>7.408666666666667</v>
+        <v>3350463.0249</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -2306,19 +2398,21 @@
         <v>7820.5395</v>
       </c>
       <c r="G50" t="n">
-        <v>7.4065</v>
+        <v>3350463.0249</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2345,19 +2439,21 @@
         <v>15123.3448</v>
       </c>
       <c r="G51" t="n">
-        <v>7.405833333333334</v>
+        <v>3365586.3697</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -2384,19 +2480,21 @@
         <v>235163.3783</v>
       </c>
       <c r="G52" t="n">
-        <v>7.405333333333333</v>
+        <v>3600749.748</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -2423,19 +2521,21 @@
         <v>95073.5414</v>
       </c>
       <c r="G53" t="n">
-        <v>7.404833333333332</v>
+        <v>3600749.748</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -2462,19 +2562,21 @@
         <v>470.5663</v>
       </c>
       <c r="G54" t="n">
-        <v>7.403166666666666</v>
+        <v>3600279.1817</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -2501,19 +2603,21 @@
         <v>13513.5</v>
       </c>
       <c r="G55" t="n">
-        <v>7.402999999999998</v>
+        <v>3613792.6817</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -2540,19 +2644,21 @@
         <v>72071.7966</v>
       </c>
       <c r="G56" t="n">
-        <v>7.402499999999998</v>
+        <v>3613792.6817</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M56" t="n">
@@ -2579,19 +2685,21 @@
         <v>144143.5932</v>
       </c>
       <c r="G57" t="n">
-        <v>7.404499999999998</v>
+        <v>3613792.6817</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -2618,19 +2726,21 @@
         <v>4346.4615</v>
       </c>
       <c r="G58" t="n">
-        <v>7.406999999999997</v>
+        <v>3609446.220199999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2657,19 +2767,21 @@
         <v>152764.096</v>
       </c>
       <c r="G59" t="n">
-        <v>7.409499999999997</v>
+        <v>3456682.124199999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -2696,19 +2808,21 @@
         <v>10998.331</v>
       </c>
       <c r="G60" t="n">
-        <v>7.41333333333333</v>
+        <v>3467680.455199999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2735,19 +2849,21 @@
         <v>334539.2231</v>
       </c>
       <c r="G61" t="n">
-        <v>7.417166666666663</v>
+        <v>3802219.678299999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2774,19 +2890,21 @@
         <v>14808.964</v>
       </c>
       <c r="G62" t="n">
-        <v>7.421499999999996</v>
+        <v>3817028.642299999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -2813,19 +2931,21 @@
         <v>14072.964</v>
       </c>
       <c r="G63" t="n">
-        <v>7.42633333333333</v>
+        <v>3831101.6063</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -2852,19 +2972,21 @@
         <v>368044.0951</v>
       </c>
       <c r="G64" t="n">
-        <v>7.42933333333333</v>
+        <v>4199145.7014</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -2891,19 +3013,21 @@
         <v>364115.0666</v>
       </c>
       <c r="G65" t="n">
-        <v>7.431999999999998</v>
+        <v>3835030.6348</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -2930,19 +3054,21 @@
         <v>4769</v>
       </c>
       <c r="G66" t="n">
-        <v>7.433666666666665</v>
+        <v>3835030.6348</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -2969,19 +3095,21 @@
         <v>80707.4666</v>
       </c>
       <c r="G67" t="n">
-        <v>7.435166666666664</v>
+        <v>3915738.1014</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -3008,19 +3136,21 @@
         <v>407418.7499</v>
       </c>
       <c r="G68" t="n">
-        <v>7.436999999999998</v>
+        <v>3915738.1014</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -3047,19 +3177,21 @@
         <v>82250.2834</v>
       </c>
       <c r="G69" t="n">
-        <v>7.438666666666665</v>
+        <v>3915738.1014</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -3086,19 +3218,21 @@
         <v>126569.7816</v>
       </c>
       <c r="G70" t="n">
-        <v>7.439833333333331</v>
+        <v>3915738.1014</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -3125,19 +3259,21 @@
         <v>228301.3981</v>
       </c>
       <c r="G71" t="n">
-        <v>7.441499999999999</v>
+        <v>3915738.1014</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -3164,19 +3300,21 @@
         <v>4040.2712</v>
       </c>
       <c r="G72" t="n">
-        <v>7.442999999999999</v>
+        <v>3911697.8302</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -3203,19 +3341,21 @@
         <v>112353.7237</v>
       </c>
       <c r="G73" t="n">
-        <v>7.443166666666666</v>
+        <v>4024051.5539</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -3242,19 +3382,21 @@
         <v>250.525</v>
       </c>
       <c r="G74" t="n">
-        <v>7.444333333333332</v>
+        <v>4024302.0789</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3281,19 +3423,21 @@
         <v>8000</v>
       </c>
       <c r="G75" t="n">
-        <v>7.444666666666665</v>
+        <v>4024302.0789</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -3320,19 +3464,21 @@
         <v>8780.053099999999</v>
       </c>
       <c r="G76" t="n">
-        <v>7.444166666666664</v>
+        <v>4024302.0789</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -3359,19 +3505,21 @@
         <v>58593.4003</v>
       </c>
       <c r="G77" t="n">
-        <v>7.442499999999997</v>
+        <v>3965708.6786</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -3398,19 +3546,21 @@
         <v>101000</v>
       </c>
       <c r="G78" t="n">
-        <v>7.441166666666663</v>
+        <v>4066708.6786</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -3437,19 +3587,21 @@
         <v>6710.66</v>
       </c>
       <c r="G79" t="n">
-        <v>7.439666666666663</v>
+        <v>4066708.6786</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -3476,23 +3628,25 @@
         <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>7.439333333333328</v>
+        <v>4066718.6786</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>7.69</v>
+        <v>7.41</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>1.019291497975709</v>
       </c>
     </row>
     <row r="81">
@@ -3515,21 +3669,17 @@
         <v>369417.1778</v>
       </c>
       <c r="G81" t="n">
-        <v>7.435999999999996</v>
+        <v>3697301.5008</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3554,21 +3704,17 @@
         <v>60011.3382</v>
       </c>
       <c r="G82" t="n">
-        <v>7.432499999999996</v>
+        <v>3697301.5008</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3593,21 +3739,17 @@
         <v>59781.4666</v>
       </c>
       <c r="G83" t="n">
-        <v>7.429999999999996</v>
+        <v>3757082.967399999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3632,21 +3774,17 @@
         <v>200000</v>
       </c>
       <c r="G84" t="n">
-        <v>7.426999999999996</v>
+        <v>3557082.967399999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3671,21 +3809,17 @@
         <v>33647.375</v>
       </c>
       <c r="G85" t="n">
-        <v>7.424499999999996</v>
+        <v>3523435.592399999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3710,21 +3844,17 @@
         <v>13404.8259</v>
       </c>
       <c r="G86" t="n">
-        <v>7.422666666666662</v>
+        <v>3510030.766499999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3749,21 +3879,17 @@
         <v>27952.8392</v>
       </c>
       <c r="G87" t="n">
-        <v>7.422666666666662</v>
+        <v>3537983.605699999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3788,21 +3914,17 @@
         <v>2675.1803</v>
       </c>
       <c r="G88" t="n">
-        <v>7.420999999999995</v>
+        <v>3537983.605699999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3827,21 +3949,17 @@
         <v>9055.6289</v>
       </c>
       <c r="G89" t="n">
-        <v>7.420999999999995</v>
+        <v>3537983.605699999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3866,21 +3984,17 @@
         <v>7260.5527</v>
       </c>
       <c r="G90" t="n">
-        <v>7.421333333333328</v>
+        <v>3545244.158399999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3905,21 +4019,17 @@
         <v>5321.9097</v>
       </c>
       <c r="G91" t="n">
-        <v>7.421666666666662</v>
+        <v>3545244.158399999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3944,21 +4054,17 @@
         <v>118516</v>
       </c>
       <c r="G92" t="n">
-        <v>7.422499999999995</v>
+        <v>3663760.158399999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3983,21 +4089,17 @@
         <v>2556.3837</v>
       </c>
       <c r="G93" t="n">
-        <v>7.423666666666662</v>
+        <v>3661203.774699999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4022,21 +4124,17 @@
         <v>6756.713</v>
       </c>
       <c r="G94" t="n">
-        <v>7.422666666666662</v>
+        <v>3654447.061699999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4061,21 +4159,17 @@
         <v>110010.0203</v>
       </c>
       <c r="G95" t="n">
-        <v>7.422833333333329</v>
+        <v>3544437.041399999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4100,21 +4194,17 @@
         <v>11028.1842</v>
       </c>
       <c r="G96" t="n">
-        <v>7.425333333333328</v>
+        <v>3533408.857199999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4139,21 +4229,17 @@
         <v>42944.1544</v>
       </c>
       <c r="G97" t="n">
-        <v>7.426499999999995</v>
+        <v>3533408.857199999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4178,21 +4264,17 @@
         <v>17361.193</v>
       </c>
       <c r="G98" t="n">
-        <v>7.427499999999995</v>
+        <v>3516047.664199999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4217,21 +4299,17 @@
         <v>130067.4711</v>
       </c>
       <c r="G99" t="n">
-        <v>7.429499999999995</v>
+        <v>3516047.664199999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4256,21 +4334,17 @@
         <v>2990.4259</v>
       </c>
       <c r="G100" t="n">
-        <v>7.431499999999995</v>
+        <v>3516047.664199999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4295,21 +4369,17 @@
         <v>96734.6415</v>
       </c>
       <c r="G101" t="n">
-        <v>7.430166666666662</v>
+        <v>3419313.022699999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4334,21 +4404,17 @@
         <v>31.6939</v>
       </c>
       <c r="G102" t="n">
-        <v>7.428833333333329</v>
+        <v>3419313.022699999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4373,21 +4439,17 @@
         <v>4166.4214</v>
       </c>
       <c r="G103" t="n">
-        <v>7.427333333333329</v>
+        <v>3415146.601299999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4412,21 +4474,17 @@
         <v>4068.1547</v>
       </c>
       <c r="G104" t="n">
-        <v>7.426666666666662</v>
+        <v>3419214.755999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4451,21 +4509,17 @@
         <v>101947.3126</v>
       </c>
       <c r="G105" t="n">
-        <v>7.424833333333329</v>
+        <v>3317267.443399999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4490,21 +4544,17 @@
         <v>106341.2327</v>
       </c>
       <c r="G106" t="n">
-        <v>7.422999999999996</v>
+        <v>3317267.443399999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4529,452 +4579,19 @@
         <v>4073.8473</v>
       </c>
       <c r="G107" t="n">
-        <v>7.423833333333329</v>
+        <v>3321341.290699999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="C108" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D108" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="E108" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F108" t="n">
-        <v>33647.375</v>
-      </c>
-      <c r="G108" t="n">
-        <v>7.425666666666662</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="C109" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D109" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="E109" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F109" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G109" t="n">
-        <v>7.426499999999995</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="C110" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="D110" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="E110" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="F110" t="n">
-        <v>200</v>
-      </c>
-      <c r="G110" t="n">
-        <v>7.426333333333329</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="C111" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="D111" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="E111" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="F111" t="n">
-        <v>200</v>
-      </c>
-      <c r="G111" t="n">
-        <v>7.424499999999996</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="C112" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="D112" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="E112" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2224.9192</v>
-      </c>
-      <c r="G112" t="n">
-        <v>7.423999999999996</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="C113" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="D113" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="E113" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="F113" t="n">
-        <v>43226.0095</v>
-      </c>
-      <c r="G113" t="n">
-        <v>7.424499999999997</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="C114" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="D114" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="E114" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="F114" t="n">
-        <v>73679.5288</v>
-      </c>
-      <c r="G114" t="n">
-        <v>7.426499999999996</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="C115" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="D115" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="E115" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="F115" t="n">
-        <v>200</v>
-      </c>
-      <c r="G115" t="n">
-        <v>7.427499999999997</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="C116" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D116" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="E116" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="F116" t="n">
-        <v>200</v>
-      </c>
-      <c r="G116" t="n">
-        <v>7.428666666666664</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="C117" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="D117" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="E117" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F117" t="n">
-        <v>200</v>
-      </c>
-      <c r="G117" t="n">
-        <v>7.429999999999998</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="C118" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="D118" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="E118" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="F118" t="n">
-        <v>200</v>
-      </c>
-      <c r="G118" t="n">
-        <v>7.432666666666665</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>0.9689921976592978</v>
       </c>
     </row>
   </sheetData>

--- a/BackTest/2019-11-02 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-02 BackTest ZIL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,6 +543,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -579,6 +587,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,6 +629,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -655,6 +665,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,6 +705,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -737,6 +749,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,6 +791,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -819,6 +833,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -860,6 +875,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -901,6 +917,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -942,6 +959,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -983,6 +1001,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1024,6 +1043,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1065,6 +1085,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1106,6 +1127,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1147,6 +1169,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1188,6 +1211,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1229,6 +1253,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1270,6 +1295,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1297,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
@@ -1305,11 +1331,14 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>1.027388663967612</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.029166666666667</v>
       </c>
     </row>
     <row r="24">
@@ -1341,17 +1370,12 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1382,17 +1406,12 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1423,17 +1442,12 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1461,20 +1475,15 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1505,17 +1514,12 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1546,17 +1550,12 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1587,17 +1586,12 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1628,17 +1622,12 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1669,17 +1658,12 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1710,17 +1694,12 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1751,17 +1730,12 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1792,17 +1766,12 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1833,17 +1802,12 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1874,17 +1838,12 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1915,17 +1874,12 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1956,17 +1910,12 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1997,17 +1946,12 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2038,17 +1982,12 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2079,17 +2018,12 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2120,17 +2054,12 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2161,17 +2090,12 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2202,17 +2126,12 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2243,17 +2162,12 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2284,17 +2198,12 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2325,17 +2234,12 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2366,17 +2270,12 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2407,17 +2306,12 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2448,17 +2342,12 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2489,17 +2378,12 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2530,17 +2414,12 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2571,17 +2450,12 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2612,17 +2486,12 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2653,17 +2522,12 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2694,17 +2558,12 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2735,17 +2594,12 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2776,17 +2630,12 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2817,17 +2666,12 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2858,17 +2702,12 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2899,17 +2738,12 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2940,17 +2774,12 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2978,20 +2807,15 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3019,20 +2843,15 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3060,20 +2879,15 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3104,17 +2918,12 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3145,17 +2954,12 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3183,20 +2987,15 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3224,20 +3023,15 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3268,17 +3062,12 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3306,20 +3095,15 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3350,17 +3134,12 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3388,20 +3167,15 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3432,17 +3206,12 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3470,20 +3239,15 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3511,20 +3275,15 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3552,20 +3311,15 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3593,20 +3347,15 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3637,17 +3386,12 @@
         <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>1.019291497975709</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3683,6 +3427,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3718,6 +3463,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3745,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3753,6 +3499,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3780,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3788,6 +3535,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3815,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3823,6 +3571,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3850,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3858,6 +3607,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3893,6 +3643,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3928,6 +3679,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3963,6 +3715,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3998,6 +3751,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4033,6 +3787,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4068,6 +3823,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4095,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4103,6 +3859,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4130,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4138,6 +3895,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4165,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4173,6 +3931,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4200,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4208,6 +3967,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4243,6 +4003,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4278,6 +4039,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4313,6 +4075,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4348,6 +4111,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4383,6 +4147,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4418,6 +4183,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4453,6 +4219,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4488,6 +4255,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4523,6 +4291,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4558,6 +4327,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4593,6 +4363,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-02 BackTest ZIL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -450,10 +450,10 @@
         <v>7.2</v>
       </c>
       <c r="F2" t="n">
-        <v>41293.3248</v>
+        <v>153834.245</v>
       </c>
       <c r="G2" t="n">
-        <v>1762892.4908</v>
+        <v>2082107.2377</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.25</v>
+        <v>7.19</v>
       </c>
       <c r="C3" t="n">
-        <v>7.2</v>
+        <v>7.19</v>
       </c>
       <c r="D3" t="n">
-        <v>7.25</v>
+        <v>7.19</v>
       </c>
       <c r="E3" t="n">
-        <v>7.2</v>
+        <v>7.19</v>
       </c>
       <c r="F3" t="n">
-        <v>65711.41650000001</v>
+        <v>896.4155</v>
       </c>
       <c r="G3" t="n">
-        <v>1762892.4908</v>
+        <v>2081210.8222</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,35 +510,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.32</v>
+        <v>7.19</v>
       </c>
       <c r="C4" t="n">
-        <v>7.32</v>
+        <v>7.19</v>
       </c>
       <c r="D4" t="n">
-        <v>7.32</v>
+        <v>7.19</v>
       </c>
       <c r="E4" t="n">
-        <v>7.32</v>
+        <v>7.19</v>
       </c>
       <c r="F4" t="n">
-        <v>11525.1471</v>
+        <v>68765.1283</v>
       </c>
       <c r="G4" t="n">
-        <v>1774417.6379</v>
+        <v>2081210.8222</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -550,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.33</v>
+        <v>7.27</v>
       </c>
       <c r="C5" t="n">
-        <v>7.33</v>
+        <v>7.39</v>
       </c>
       <c r="D5" t="n">
-        <v>7.33</v>
+        <v>7.39</v>
       </c>
       <c r="E5" t="n">
-        <v>7.33</v>
+        <v>7.27</v>
       </c>
       <c r="F5" t="n">
-        <v>36370.4165</v>
+        <v>74128.24460000001</v>
       </c>
       <c r="G5" t="n">
-        <v>1810788.0544</v>
+        <v>2155339.0668</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -594,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.33</v>
+        <v>7.43</v>
       </c>
       <c r="C6" t="n">
-        <v>7.39</v>
+        <v>7.43</v>
       </c>
       <c r="D6" t="n">
-        <v>7.4</v>
+        <v>7.43</v>
       </c>
       <c r="E6" t="n">
-        <v>7.33</v>
+        <v>7.43</v>
       </c>
       <c r="F6" t="n">
-        <v>83531.4743</v>
+        <v>7006.0193</v>
       </c>
       <c r="G6" t="n">
-        <v>1894319.5287</v>
+        <v>2162345.086099999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,14 +606,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -636,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.39</v>
+        <v>7.44</v>
       </c>
       <c r="C7" t="n">
-        <v>7.41</v>
+        <v>7.44</v>
       </c>
       <c r="D7" t="n">
-        <v>7.41</v>
+        <v>7.44</v>
       </c>
       <c r="E7" t="n">
-        <v>7.39</v>
+        <v>7.44</v>
       </c>
       <c r="F7" t="n">
-        <v>154186.9783</v>
+        <v>30000</v>
       </c>
       <c r="G7" t="n">
-        <v>2048506.507</v>
+        <v>2192345.086099999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -672,35 +654,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="C8" t="n">
         <v>7.39</v>
       </c>
       <c r="D8" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="E8" t="n">
         <v>7.39</v>
       </c>
       <c r="F8" t="n">
-        <v>31426.2422</v>
+        <v>47345.0803</v>
       </c>
       <c r="G8" t="n">
-        <v>2017080.2648</v>
+        <v>2145000.005799999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -712,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.33</v>
+        <v>7.4</v>
       </c>
       <c r="C9" t="n">
-        <v>7.4</v>
+        <v>7.38</v>
       </c>
       <c r="D9" t="n">
         <v>7.4</v>
       </c>
       <c r="E9" t="n">
-        <v>7.33</v>
+        <v>7.21</v>
       </c>
       <c r="F9" t="n">
-        <v>79477.75290000001</v>
+        <v>115996.9843</v>
       </c>
       <c r="G9" t="n">
-        <v>2096558.0177</v>
+        <v>2029003.0215</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -756,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.41</v>
+        <v>7.23</v>
       </c>
       <c r="C10" t="n">
-        <v>7.43</v>
+        <v>7.23</v>
       </c>
       <c r="D10" t="n">
-        <v>7.43</v>
+        <v>7.23</v>
       </c>
       <c r="E10" t="n">
-        <v>7.41</v>
+        <v>7.23</v>
       </c>
       <c r="F10" t="n">
-        <v>706251.5220999999</v>
+        <v>13826</v>
       </c>
       <c r="G10" t="n">
-        <v>2802809.539799999</v>
+        <v>2015177.0215</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -780,14 +750,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -798,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
       <c r="C11" t="n">
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
       <c r="D11" t="n">
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
       <c r="E11" t="n">
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
       <c r="F11" t="n">
-        <v>35403.8643</v>
+        <v>1400</v>
       </c>
       <c r="G11" t="n">
-        <v>2767405.675499999</v>
+        <v>2016577.0215</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -822,14 +786,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -840,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="C12" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="D12" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="E12" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="F12" t="n">
-        <v>16045.608</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>2767405.675499999</v>
+        <v>2016567.0215</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -864,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -882,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.43</v>
+        <v>7.41</v>
       </c>
       <c r="C13" t="n">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="D13" t="n">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="E13" t="n">
-        <v>7.43</v>
+        <v>7.41</v>
       </c>
       <c r="F13" t="n">
-        <v>194871.3007</v>
+        <v>70</v>
       </c>
       <c r="G13" t="n">
-        <v>2962276.976199999</v>
+        <v>2016567.0215</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -906,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -924,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="C14" t="n">
-        <v>7.45</v>
+        <v>7.41</v>
       </c>
       <c r="D14" t="n">
-        <v>7.45</v>
+        <v>7.41</v>
       </c>
       <c r="E14" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="F14" t="n">
-        <v>56904.5363</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>2905372.4399</v>
+        <v>2016567.0215</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -948,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -966,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.45</v>
+        <v>7.41</v>
       </c>
       <c r="C15" t="n">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="D15" t="n">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="E15" t="n">
-        <v>7.45</v>
+        <v>7.41</v>
       </c>
       <c r="F15" t="n">
-        <v>274399.828</v>
+        <v>60</v>
       </c>
       <c r="G15" t="n">
-        <v>3179772.267899999</v>
+        <v>2016567.0215</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -990,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1008,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="C16" t="n">
-        <v>7.55</v>
+        <v>7.42</v>
       </c>
       <c r="D16" t="n">
-        <v>7.55</v>
+        <v>7.42</v>
       </c>
       <c r="E16" t="n">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="F16" t="n">
-        <v>256481.2336</v>
+        <v>13277.944</v>
       </c>
       <c r="G16" t="n">
-        <v>3436253.501499999</v>
+        <v>2029844.965499999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1032,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.55</v>
+        <v>7.42</v>
       </c>
       <c r="C17" t="n">
-        <v>7.61</v>
+        <v>7.42</v>
       </c>
       <c r="D17" t="n">
-        <v>7.61</v>
+        <v>7.42</v>
       </c>
       <c r="E17" t="n">
-        <v>7.55</v>
+        <v>7.42</v>
       </c>
       <c r="F17" t="n">
-        <v>359240.9884</v>
+        <v>120</v>
       </c>
       <c r="G17" t="n">
-        <v>3795494.489899999</v>
+        <v>2029844.965499999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1074,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.59</v>
+        <v>7.42</v>
       </c>
       <c r="C18" t="n">
-        <v>7.6</v>
+        <v>7.42</v>
       </c>
       <c r="D18" t="n">
-        <v>7.6</v>
+        <v>7.42</v>
       </c>
       <c r="E18" t="n">
-        <v>7.54</v>
+        <v>7.41</v>
       </c>
       <c r="F18" t="n">
-        <v>13228.1553</v>
+        <v>67989.6731</v>
       </c>
       <c r="G18" t="n">
-        <v>3782266.334599999</v>
+        <v>2029844.965499999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1116,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1134,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.59</v>
+        <v>7.43</v>
       </c>
       <c r="C19" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="D19" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="E19" t="n">
-        <v>7.59</v>
+        <v>7.43</v>
       </c>
       <c r="F19" t="n">
-        <v>75361.0205</v>
+        <v>140</v>
       </c>
       <c r="G19" t="n">
-        <v>3857627.355099999</v>
+        <v>2029984.965499999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1158,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1176,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.59</v>
+        <v>7.42</v>
       </c>
       <c r="C20" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="D20" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="E20" t="n">
-        <v>7.59</v>
+        <v>7.42</v>
       </c>
       <c r="F20" t="n">
-        <v>34777.4225</v>
+        <v>10540</v>
       </c>
       <c r="G20" t="n">
-        <v>3857627.355099999</v>
+        <v>2029984.965499999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1200,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1218,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="C21" t="n">
-        <v>7.69</v>
+        <v>7.43</v>
       </c>
       <c r="D21" t="n">
-        <v>7.69</v>
+        <v>7.43</v>
       </c>
       <c r="E21" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="F21" t="n">
-        <v>30391.4766</v>
+        <v>70</v>
       </c>
       <c r="G21" t="n">
-        <v>3888018.8317</v>
+        <v>2029984.965499999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1242,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1260,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.69</v>
+        <v>7.43</v>
       </c>
       <c r="C22" t="n">
-        <v>7.7</v>
+        <v>7.43</v>
       </c>
       <c r="D22" t="n">
-        <v>7.72</v>
+        <v>7.43</v>
       </c>
       <c r="E22" t="n">
-        <v>7.61</v>
+        <v>7.43</v>
       </c>
       <c r="F22" t="n">
-        <v>373161.5658</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>4261180.397499999</v>
+        <v>2029984.965499999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1284,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1302,66 +1194,58 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.7</v>
+        <v>7.43</v>
       </c>
       <c r="C23" t="n">
-        <v>7.65</v>
+        <v>7.43</v>
       </c>
       <c r="D23" t="n">
-        <v>7.79</v>
+        <v>7.43</v>
       </c>
       <c r="E23" t="n">
-        <v>7.65</v>
+        <v>7.43</v>
       </c>
       <c r="F23" t="n">
-        <v>162243.7016</v>
+        <v>70</v>
       </c>
       <c r="G23" t="n">
-        <v>4098936.695899999</v>
+        <v>2029984.965499999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>1.027388663967612</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.029166666666667</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.65</v>
+        <v>7.42</v>
       </c>
       <c r="C24" t="n">
-        <v>7.67</v>
+        <v>7.41</v>
       </c>
       <c r="D24" t="n">
-        <v>7.79</v>
+        <v>7.42</v>
       </c>
       <c r="E24" t="n">
-        <v>7.6</v>
+        <v>7.41</v>
       </c>
       <c r="F24" t="n">
-        <v>245728.0021</v>
+        <v>110</v>
       </c>
       <c r="G24" t="n">
-        <v>4344664.697999999</v>
+        <v>2029874.965499999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1382,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.6</v>
+        <v>7.41</v>
       </c>
       <c r="C25" t="n">
-        <v>7.6</v>
+        <v>7.43</v>
       </c>
       <c r="D25" t="n">
-        <v>7.6</v>
+        <v>7.43</v>
       </c>
       <c r="E25" t="n">
-        <v>7.6</v>
+        <v>7.41</v>
       </c>
       <c r="F25" t="n">
-        <v>88554.7064</v>
+        <v>11360</v>
       </c>
       <c r="G25" t="n">
-        <v>4256109.991599999</v>
+        <v>2041234.965499999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1418,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.6</v>
+        <v>7.28</v>
       </c>
       <c r="C26" t="n">
-        <v>7.5</v>
+        <v>7.28</v>
       </c>
       <c r="D26" t="n">
-        <v>7.6</v>
+        <v>7.28</v>
       </c>
       <c r="E26" t="n">
-        <v>7.5</v>
+        <v>7.28</v>
       </c>
       <c r="F26" t="n">
-        <v>145654.5804</v>
+        <v>418.5314</v>
       </c>
       <c r="G26" t="n">
-        <v>4110455.4112</v>
+        <v>2040816.434099999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1454,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.48</v>
+        <v>7.24</v>
       </c>
       <c r="C27" t="n">
-        <v>7.4</v>
+        <v>7.18</v>
       </c>
       <c r="D27" t="n">
-        <v>7.6</v>
+        <v>7.24</v>
       </c>
       <c r="E27" t="n">
-        <v>7.4</v>
+        <v>7.18</v>
       </c>
       <c r="F27" t="n">
-        <v>214308.19</v>
+        <v>171798.7905</v>
       </c>
       <c r="G27" t="n">
-        <v>3896147.2212</v>
+        <v>1869017.6436</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1490,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.5</v>
+        <v>7.21</v>
       </c>
       <c r="C28" t="n">
-        <v>7.5</v>
+        <v>7.17</v>
       </c>
       <c r="D28" t="n">
-        <v>7.5</v>
+        <v>7.21</v>
       </c>
       <c r="E28" t="n">
-        <v>7.5</v>
+        <v>7.17</v>
       </c>
       <c r="F28" t="n">
-        <v>11</v>
+        <v>149591.8105</v>
       </c>
       <c r="G28" t="n">
-        <v>3896158.2212</v>
+        <v>1719425.8331</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1526,31 +1410,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.4</v>
+        <v>7.17</v>
       </c>
       <c r="C29" t="n">
-        <v>7.4</v>
+        <v>7.17</v>
       </c>
       <c r="D29" t="n">
-        <v>7.48</v>
+        <v>7.17</v>
       </c>
       <c r="E29" t="n">
-        <v>7.39</v>
+        <v>7.17</v>
       </c>
       <c r="F29" t="n">
-        <v>387505.1576</v>
+        <v>45754.3765</v>
       </c>
       <c r="G29" t="n">
-        <v>3508653.0636</v>
+        <v>1719425.8331</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
@@ -1562,32 +1450,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="C30" t="n">
-        <v>7.41</v>
+        <v>7.2</v>
       </c>
       <c r="D30" t="n">
-        <v>7.41</v>
+        <v>7.2</v>
       </c>
       <c r="E30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="F30" t="n">
-        <v>91.125</v>
+        <v>43466.6577</v>
       </c>
       <c r="G30" t="n">
-        <v>3508744.1886</v>
+        <v>1762892.4908</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1598,32 +1494,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.41</v>
+        <v>7.2</v>
       </c>
       <c r="C31" t="n">
-        <v>7.41</v>
+        <v>7.2</v>
       </c>
       <c r="D31" t="n">
-        <v>7.41</v>
+        <v>7.2</v>
       </c>
       <c r="E31" t="n">
-        <v>7.41</v>
+        <v>7.2</v>
       </c>
       <c r="F31" t="n">
-        <v>4278.616</v>
+        <v>41293.3248</v>
       </c>
       <c r="G31" t="n">
-        <v>3508744.1886</v>
+        <v>1762892.4908</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1634,32 +1538,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.45</v>
+        <v>7.25</v>
       </c>
       <c r="C32" t="n">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="D32" t="n">
-        <v>7.45</v>
+        <v>7.25</v>
       </c>
       <c r="E32" t="n">
-        <v>7.45</v>
+        <v>7.2</v>
       </c>
       <c r="F32" t="n">
-        <v>25520.914</v>
+        <v>65711.41650000001</v>
       </c>
       <c r="G32" t="n">
-        <v>3534265.102599999</v>
+        <v>1762892.4908</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1670,32 +1582,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.41</v>
+        <v>7.32</v>
       </c>
       <c r="C33" t="n">
-        <v>7.4</v>
+        <v>7.32</v>
       </c>
       <c r="D33" t="n">
-        <v>7.41</v>
+        <v>7.32</v>
       </c>
       <c r="E33" t="n">
-        <v>7.4</v>
+        <v>7.32</v>
       </c>
       <c r="F33" t="n">
-        <v>27222.2017</v>
+        <v>11525.1471</v>
       </c>
       <c r="G33" t="n">
-        <v>3507042.900899999</v>
+        <v>1774417.6379</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1706,32 +1626,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.47</v>
+        <v>7.33</v>
       </c>
       <c r="C34" t="n">
-        <v>7.47</v>
+        <v>7.33</v>
       </c>
       <c r="D34" t="n">
-        <v>7.47</v>
+        <v>7.33</v>
       </c>
       <c r="E34" t="n">
-        <v>7.47</v>
+        <v>7.33</v>
       </c>
       <c r="F34" t="n">
-        <v>8597.108399999999</v>
+        <v>36370.4165</v>
       </c>
       <c r="G34" t="n">
-        <v>3515640.009299999</v>
+        <v>1810788.0544</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1742,32 +1670,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.39</v>
+        <v>7.33</v>
       </c>
       <c r="C35" t="n">
         <v>7.39</v>
       </c>
       <c r="D35" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="E35" t="n">
-        <v>7.39</v>
+        <v>7.33</v>
       </c>
       <c r="F35" t="n">
-        <v>3993.6069</v>
+        <v>83531.4743</v>
       </c>
       <c r="G35" t="n">
-        <v>3511646.402399999</v>
+        <v>1894319.5287</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K35" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1778,32 +1714,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.32</v>
+        <v>7.39</v>
       </c>
       <c r="C36" t="n">
-        <v>7.23</v>
+        <v>7.41</v>
       </c>
       <c r="D36" t="n">
-        <v>7.32</v>
+        <v>7.41</v>
       </c>
       <c r="E36" t="n">
-        <v>7.23</v>
+        <v>7.39</v>
       </c>
       <c r="F36" t="n">
-        <v>18183.627</v>
+        <v>154186.9783</v>
       </c>
       <c r="G36" t="n">
-        <v>3493462.775399999</v>
+        <v>2048506.507</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="K36" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1814,32 +1758,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.3</v>
+        <v>7.39</v>
       </c>
       <c r="C37" t="n">
-        <v>7.31</v>
+        <v>7.39</v>
       </c>
       <c r="D37" t="n">
-        <v>7.31</v>
+        <v>7.39</v>
       </c>
       <c r="E37" t="n">
-        <v>7.3</v>
+        <v>7.39</v>
       </c>
       <c r="F37" t="n">
-        <v>5123</v>
+        <v>31426.2422</v>
       </c>
       <c r="G37" t="n">
-        <v>3498585.775399999</v>
+        <v>2017080.2648</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1850,32 +1802,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="C38" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="D38" t="n">
-        <v>7.31</v>
+        <v>7.4</v>
       </c>
       <c r="E38" t="n">
-        <v>7.3</v>
+        <v>7.33</v>
       </c>
       <c r="F38" t="n">
-        <v>164813.9681</v>
+        <v>79477.75290000001</v>
       </c>
       <c r="G38" t="n">
-        <v>3333771.807299999</v>
+        <v>2096558.0177</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="K38" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1886,32 +1846,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.27</v>
+        <v>7.41</v>
       </c>
       <c r="C39" t="n">
-        <v>7.24</v>
+        <v>7.43</v>
       </c>
       <c r="D39" t="n">
-        <v>7.27</v>
+        <v>7.43</v>
       </c>
       <c r="E39" t="n">
-        <v>7.24</v>
+        <v>7.41</v>
       </c>
       <c r="F39" t="n">
-        <v>77989.9474</v>
+        <v>706251.5220999999</v>
       </c>
       <c r="G39" t="n">
-        <v>3255781.859899999</v>
+        <v>2802809.539799999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1922,22 +1890,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.25</v>
+        <v>7.4</v>
       </c>
       <c r="C40" t="n">
-        <v>7.24</v>
+        <v>7.4</v>
       </c>
       <c r="D40" t="n">
-        <v>7.25</v>
+        <v>7.4</v>
       </c>
       <c r="E40" t="n">
-        <v>7.24</v>
+        <v>7.4</v>
       </c>
       <c r="F40" t="n">
-        <v>72071.7966</v>
+        <v>35403.8643</v>
       </c>
       <c r="G40" t="n">
-        <v>3255781.859899999</v>
+        <v>2767405.675499999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1946,8 +1914,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1958,7 +1932,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.34</v>
+        <v>7.4</v>
       </c>
       <c r="C41" t="n">
         <v>7.4</v>
@@ -1967,13 +1941,13 @@
         <v>7.4</v>
       </c>
       <c r="E41" t="n">
-        <v>7.34</v>
+        <v>7.4</v>
       </c>
       <c r="F41" t="n">
-        <v>138497.7892</v>
+        <v>16045.608</v>
       </c>
       <c r="G41" t="n">
-        <v>3394279.649099999</v>
+        <v>2767405.675499999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1982,8 +1956,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1994,22 +1974,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.4</v>
+        <v>7.43</v>
       </c>
       <c r="C42" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="D42" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="E42" t="n">
-        <v>7.4</v>
+        <v>7.43</v>
       </c>
       <c r="F42" t="n">
-        <v>2702.7</v>
+        <v>194871.3007</v>
       </c>
       <c r="G42" t="n">
-        <v>3394279.649099999</v>
+        <v>2962276.976199999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2018,8 +1998,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2033,19 +2019,19 @@
         <v>7.4</v>
       </c>
       <c r="C43" t="n">
-        <v>7.4</v>
+        <v>7.45</v>
       </c>
       <c r="D43" t="n">
-        <v>7.4</v>
+        <v>7.45</v>
       </c>
       <c r="E43" t="n">
         <v>7.4</v>
       </c>
       <c r="F43" t="n">
-        <v>2702.7</v>
+        <v>56904.5363</v>
       </c>
       <c r="G43" t="n">
-        <v>3394279.649099999</v>
+        <v>2905372.4399</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2054,8 +2040,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2066,22 +2058,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.41</v>
+        <v>7.45</v>
       </c>
       <c r="C44" t="n">
-        <v>7.41</v>
+        <v>7.5</v>
       </c>
       <c r="D44" t="n">
-        <v>7.41</v>
+        <v>7.5</v>
       </c>
       <c r="E44" t="n">
-        <v>7.41</v>
+        <v>7.45</v>
       </c>
       <c r="F44" t="n">
-        <v>3962.9542</v>
+        <v>274399.828</v>
       </c>
       <c r="G44" t="n">
-        <v>3398242.603299999</v>
+        <v>3179772.267899999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2090,8 +2082,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2102,22 +2100,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.41</v>
+        <v>7.5</v>
       </c>
       <c r="C45" t="n">
-        <v>7.41</v>
+        <v>7.55</v>
       </c>
       <c r="D45" t="n">
-        <v>7.41</v>
+        <v>7.55</v>
       </c>
       <c r="E45" t="n">
-        <v>7.41</v>
+        <v>7.5</v>
       </c>
       <c r="F45" t="n">
-        <v>23259.2475</v>
+        <v>256481.2336</v>
       </c>
       <c r="G45" t="n">
-        <v>3398242.603299999</v>
+        <v>3436253.501499999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2126,8 +2124,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2138,22 +2142,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.41</v>
+        <v>7.55</v>
       </c>
       <c r="C46" t="n">
-        <v>7.41</v>
+        <v>7.61</v>
       </c>
       <c r="D46" t="n">
-        <v>7.41</v>
+        <v>7.61</v>
       </c>
       <c r="E46" t="n">
-        <v>7.41</v>
+        <v>7.55</v>
       </c>
       <c r="F46" t="n">
-        <v>132299.1629</v>
+        <v>359240.9884</v>
       </c>
       <c r="G46" t="n">
-        <v>3398242.603299999</v>
+        <v>3795494.489899999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2162,8 +2166,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2174,22 +2184,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.35</v>
+        <v>7.59</v>
       </c>
       <c r="C47" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="D47" t="n">
-        <v>7.35</v>
+        <v>7.6</v>
       </c>
       <c r="E47" t="n">
-        <v>7.3</v>
+        <v>7.54</v>
       </c>
       <c r="F47" t="n">
-        <v>39211.601</v>
+        <v>13228.1553</v>
       </c>
       <c r="G47" t="n">
-        <v>3359031.002299999</v>
+        <v>3782266.334599999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2198,8 +2208,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2210,22 +2226,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.25</v>
+        <v>7.59</v>
       </c>
       <c r="C48" t="n">
-        <v>7.24</v>
+        <v>7.61</v>
       </c>
       <c r="D48" t="n">
-        <v>7.25</v>
+        <v>7.61</v>
       </c>
       <c r="E48" t="n">
-        <v>7.24</v>
+        <v>7.59</v>
       </c>
       <c r="F48" t="n">
-        <v>18995.3633</v>
+        <v>75361.0205</v>
       </c>
       <c r="G48" t="n">
-        <v>3340035.639</v>
+        <v>3857627.355099999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2234,8 +2250,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2246,22 +2268,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="C49" t="n">
-        <v>7.3</v>
+        <v>7.61</v>
       </c>
       <c r="D49" t="n">
-        <v>7.3</v>
+        <v>7.61</v>
       </c>
       <c r="E49" t="n">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="F49" t="n">
-        <v>10427.3859</v>
+        <v>34777.4225</v>
       </c>
       <c r="G49" t="n">
-        <v>3350463.0249</v>
+        <v>3857627.355099999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2270,8 +2292,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2282,22 +2310,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.3</v>
+        <v>7.61</v>
       </c>
       <c r="C50" t="n">
-        <v>7.3</v>
+        <v>7.69</v>
       </c>
       <c r="D50" t="n">
-        <v>7.3</v>
+        <v>7.69</v>
       </c>
       <c r="E50" t="n">
-        <v>7.3</v>
+        <v>7.61</v>
       </c>
       <c r="F50" t="n">
-        <v>7820.5395</v>
+        <v>30391.4766</v>
       </c>
       <c r="G50" t="n">
-        <v>3350463.0249</v>
+        <v>3888018.8317</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2306,8 +2334,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2318,22 +2352,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.39</v>
+        <v>7.69</v>
       </c>
       <c r="C51" t="n">
-        <v>7.39</v>
+        <v>7.7</v>
       </c>
       <c r="D51" t="n">
-        <v>7.39</v>
+        <v>7.72</v>
       </c>
       <c r="E51" t="n">
-        <v>7.39</v>
+        <v>7.61</v>
       </c>
       <c r="F51" t="n">
-        <v>15123.3448</v>
+        <v>373161.5658</v>
       </c>
       <c r="G51" t="n">
-        <v>3365586.3697</v>
+        <v>4261180.397499999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2342,8 +2376,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2354,58 +2394,66 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.39</v>
+        <v>7.7</v>
       </c>
       <c r="C52" t="n">
-        <v>7.4</v>
+        <v>7.65</v>
       </c>
       <c r="D52" t="n">
-        <v>7.4</v>
+        <v>7.79</v>
       </c>
       <c r="E52" t="n">
-        <v>7.39</v>
+        <v>7.65</v>
       </c>
       <c r="F52" t="n">
-        <v>235163.3783</v>
+        <v>162243.7016</v>
       </c>
       <c r="G52" t="n">
-        <v>3600749.748</v>
+        <v>4098936.695899999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>1.061945606694561</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.03765690376569</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.4</v>
+        <v>7.65</v>
       </c>
       <c r="C53" t="n">
-        <v>7.4</v>
+        <v>7.67</v>
       </c>
       <c r="D53" t="n">
-        <v>7.4</v>
+        <v>7.79</v>
       </c>
       <c r="E53" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="F53" t="n">
-        <v>95073.5414</v>
+        <v>245728.0021</v>
       </c>
       <c r="G53" t="n">
-        <v>3600749.748</v>
+        <v>4344664.697999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2426,28 +2474,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.33</v>
+        <v>7.6</v>
       </c>
       <c r="C54" t="n">
-        <v>7.33</v>
+        <v>7.6</v>
       </c>
       <c r="D54" t="n">
-        <v>7.33</v>
+        <v>7.6</v>
       </c>
       <c r="E54" t="n">
-        <v>7.33</v>
+        <v>7.6</v>
       </c>
       <c r="F54" t="n">
-        <v>470.5663</v>
+        <v>88554.7064</v>
       </c>
       <c r="G54" t="n">
-        <v>3600279.1817</v>
+        <v>4256109.991599999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2462,22 +2510,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="C55" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="D55" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="E55" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="F55" t="n">
-        <v>13513.5</v>
+        <v>145654.5804</v>
       </c>
       <c r="G55" t="n">
-        <v>3613792.6817</v>
+        <v>4110455.4112</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2498,22 +2546,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.4</v>
+        <v>7.48</v>
       </c>
       <c r="C56" t="n">
         <v>7.4</v>
       </c>
       <c r="D56" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="E56" t="n">
         <v>7.4</v>
       </c>
       <c r="F56" t="n">
-        <v>72071.7966</v>
+        <v>214308.19</v>
       </c>
       <c r="G56" t="n">
-        <v>3613792.6817</v>
+        <v>3896147.2212</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2534,22 +2582,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="C57" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="D57" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="E57" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="F57" t="n">
-        <v>144143.5932</v>
+        <v>11</v>
       </c>
       <c r="G57" t="n">
-        <v>3613792.6817</v>
+        <v>3896158.2212</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2570,22 +2618,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.33</v>
+        <v>7.4</v>
       </c>
       <c r="C58" t="n">
-        <v>7.33</v>
+        <v>7.4</v>
       </c>
       <c r="D58" t="n">
-        <v>7.33</v>
+        <v>7.48</v>
       </c>
       <c r="E58" t="n">
-        <v>7.33</v>
+        <v>7.39</v>
       </c>
       <c r="F58" t="n">
-        <v>4346.4615</v>
+        <v>387505.1576</v>
       </c>
       <c r="G58" t="n">
-        <v>3609446.220199999</v>
+        <v>3508653.0636</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2606,22 +2654,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.36</v>
+        <v>7.4</v>
       </c>
       <c r="C59" t="n">
-        <v>7.32</v>
+        <v>7.41</v>
       </c>
       <c r="D59" t="n">
-        <v>7.36</v>
+        <v>7.41</v>
       </c>
       <c r="E59" t="n">
-        <v>7.32</v>
+        <v>7.4</v>
       </c>
       <c r="F59" t="n">
-        <v>152764.096</v>
+        <v>91.125</v>
       </c>
       <c r="G59" t="n">
-        <v>3456682.124199999</v>
+        <v>3508744.1886</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2642,22 +2690,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="C60" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="D60" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="E60" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="F60" t="n">
-        <v>10998.331</v>
+        <v>4278.616</v>
       </c>
       <c r="G60" t="n">
-        <v>3467680.455199999</v>
+        <v>3508744.1886</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2678,22 +2726,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7.41</v>
+        <v>7.45</v>
       </c>
       <c r="C61" t="n">
-        <v>7.43</v>
+        <v>7.45</v>
       </c>
       <c r="D61" t="n">
-        <v>7.43</v>
+        <v>7.45</v>
       </c>
       <c r="E61" t="n">
-        <v>7.39</v>
+        <v>7.45</v>
       </c>
       <c r="F61" t="n">
-        <v>334539.2231</v>
+        <v>25520.914</v>
       </c>
       <c r="G61" t="n">
-        <v>3802219.678299999</v>
+        <v>3534265.102599999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2714,22 +2762,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.45</v>
+        <v>7.41</v>
       </c>
       <c r="C62" t="n">
-        <v>7.46</v>
+        <v>7.4</v>
       </c>
       <c r="D62" t="n">
-        <v>7.46</v>
+        <v>7.41</v>
       </c>
       <c r="E62" t="n">
-        <v>7.45</v>
+        <v>7.4</v>
       </c>
       <c r="F62" t="n">
-        <v>14808.964</v>
+        <v>27222.2017</v>
       </c>
       <c r="G62" t="n">
-        <v>3817028.642299999</v>
+        <v>3507042.900899999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2750,22 +2798,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.49</v>
+        <v>7.47</v>
       </c>
       <c r="C63" t="n">
-        <v>7.49</v>
+        <v>7.47</v>
       </c>
       <c r="D63" t="n">
-        <v>7.49</v>
+        <v>7.47</v>
       </c>
       <c r="E63" t="n">
-        <v>7.49</v>
+        <v>7.47</v>
       </c>
       <c r="F63" t="n">
-        <v>14072.964</v>
+        <v>8597.108399999999</v>
       </c>
       <c r="G63" t="n">
-        <v>3831101.6063</v>
+        <v>3515640.009299999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2786,22 +2834,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.5</v>
+        <v>7.39</v>
       </c>
       <c r="C64" t="n">
-        <v>7.5</v>
+        <v>7.39</v>
       </c>
       <c r="D64" t="n">
-        <v>7.5</v>
+        <v>7.39</v>
       </c>
       <c r="E64" t="n">
-        <v>7.5</v>
+        <v>7.39</v>
       </c>
       <c r="F64" t="n">
-        <v>368044.0951</v>
+        <v>3993.6069</v>
       </c>
       <c r="G64" t="n">
-        <v>4199145.7014</v>
+        <v>3511646.402399999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2822,28 +2870,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.49</v>
+        <v>7.32</v>
       </c>
       <c r="C65" t="n">
-        <v>7.49</v>
+        <v>7.23</v>
       </c>
       <c r="D65" t="n">
-        <v>7.49</v>
+        <v>7.32</v>
       </c>
       <c r="E65" t="n">
-        <v>7.49</v>
+        <v>7.23</v>
       </c>
       <c r="F65" t="n">
-        <v>364115.0666</v>
+        <v>18183.627</v>
       </c>
       <c r="G65" t="n">
-        <v>3835030.6348</v>
+        <v>3493462.775399999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2858,28 +2906,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.49</v>
+        <v>7.3</v>
       </c>
       <c r="C66" t="n">
-        <v>7.49</v>
+        <v>7.31</v>
       </c>
       <c r="D66" t="n">
-        <v>7.49</v>
+        <v>7.31</v>
       </c>
       <c r="E66" t="n">
-        <v>7.49</v>
+        <v>7.3</v>
       </c>
       <c r="F66" t="n">
-        <v>4769</v>
+        <v>5123</v>
       </c>
       <c r="G66" t="n">
-        <v>3835030.6348</v>
+        <v>3498585.775399999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2894,22 +2942,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.5</v>
+        <v>7.31</v>
       </c>
       <c r="C67" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="D67" t="n">
-        <v>7.5</v>
+        <v>7.31</v>
       </c>
       <c r="E67" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="F67" t="n">
-        <v>80707.4666</v>
+        <v>164813.9681</v>
       </c>
       <c r="G67" t="n">
-        <v>3915738.1014</v>
+        <v>3333771.807299999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2930,22 +2978,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.5</v>
+        <v>7.27</v>
       </c>
       <c r="C68" t="n">
-        <v>7.5</v>
+        <v>7.24</v>
       </c>
       <c r="D68" t="n">
-        <v>7.5</v>
+        <v>7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>7.5</v>
+        <v>7.24</v>
       </c>
       <c r="F68" t="n">
-        <v>407418.7499</v>
+        <v>77989.9474</v>
       </c>
       <c r="G68" t="n">
-        <v>3915738.1014</v>
+        <v>3255781.859899999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2966,28 +3014,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="C69" t="n">
-        <v>7.5</v>
+        <v>7.24</v>
       </c>
       <c r="D69" t="n">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="E69" t="n">
-        <v>7.5</v>
+        <v>7.24</v>
       </c>
       <c r="F69" t="n">
-        <v>82250.2834</v>
+        <v>72071.7966</v>
       </c>
       <c r="G69" t="n">
-        <v>3915738.1014</v>
+        <v>3255781.859899999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3002,28 +3050,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.51</v>
+        <v>7.34</v>
       </c>
       <c r="C70" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D70" t="n">
-        <v>7.51</v>
+        <v>7.4</v>
       </c>
       <c r="E70" t="n">
-        <v>7.5</v>
+        <v>7.34</v>
       </c>
       <c r="F70" t="n">
-        <v>126569.7816</v>
+        <v>138497.7892</v>
       </c>
       <c r="G70" t="n">
-        <v>3915738.1014</v>
+        <v>3394279.649099999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3038,22 +3086,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="C71" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D71" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="E71" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="F71" t="n">
-        <v>228301.3981</v>
+        <v>2702.7</v>
       </c>
       <c r="G71" t="n">
-        <v>3915738.1014</v>
+        <v>3394279.649099999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3074,28 +3122,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="C72" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="D72" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="E72" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="F72" t="n">
-        <v>4040.2712</v>
+        <v>2702.7</v>
       </c>
       <c r="G72" t="n">
-        <v>3911697.8302</v>
+        <v>3394279.649099999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3110,22 +3158,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.51</v>
+        <v>7.41</v>
       </c>
       <c r="C73" t="n">
-        <v>7.51</v>
+        <v>7.41</v>
       </c>
       <c r="D73" t="n">
-        <v>7.51</v>
+        <v>7.41</v>
       </c>
       <c r="E73" t="n">
-        <v>7.51</v>
+        <v>7.41</v>
       </c>
       <c r="F73" t="n">
-        <v>112353.7237</v>
+        <v>3962.9542</v>
       </c>
       <c r="G73" t="n">
-        <v>4024051.5539</v>
+        <v>3398242.603299999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3146,28 +3194,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="C74" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="D74" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="E74" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="F74" t="n">
-        <v>250.525</v>
+        <v>23259.2475</v>
       </c>
       <c r="G74" t="n">
-        <v>4024302.0789</v>
+        <v>3398242.603299999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3182,22 +3230,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="C75" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="D75" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="E75" t="n">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="F75" t="n">
-        <v>8000</v>
+        <v>132299.1629</v>
       </c>
       <c r="G75" t="n">
-        <v>4024302.0789</v>
+        <v>3398242.603299999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3218,28 +3266,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.52</v>
+        <v>7.35</v>
       </c>
       <c r="C76" t="n">
-        <v>7.52</v>
+        <v>7.3</v>
       </c>
       <c r="D76" t="n">
-        <v>7.52</v>
+        <v>7.35</v>
       </c>
       <c r="E76" t="n">
-        <v>7.52</v>
+        <v>7.3</v>
       </c>
       <c r="F76" t="n">
-        <v>8780.053099999999</v>
+        <v>39211.601</v>
       </c>
       <c r="G76" t="n">
-        <v>4024302.0789</v>
+        <v>3359031.002299999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3254,28 +3302,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.51</v>
+        <v>7.25</v>
       </c>
       <c r="C77" t="n">
-        <v>7.51</v>
+        <v>7.24</v>
       </c>
       <c r="D77" t="n">
-        <v>7.51</v>
+        <v>7.25</v>
       </c>
       <c r="E77" t="n">
-        <v>7.51</v>
+        <v>7.24</v>
       </c>
       <c r="F77" t="n">
-        <v>58593.4003</v>
+        <v>18995.3633</v>
       </c>
       <c r="G77" t="n">
-        <v>3965708.6786</v>
+        <v>3340035.639</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3290,28 +3338,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.52</v>
+        <v>7.3</v>
       </c>
       <c r="C78" t="n">
-        <v>7.52</v>
+        <v>7.3</v>
       </c>
       <c r="D78" t="n">
-        <v>7.52</v>
+        <v>7.3</v>
       </c>
       <c r="E78" t="n">
-        <v>7.52</v>
+        <v>7.3</v>
       </c>
       <c r="F78" t="n">
-        <v>101000</v>
+        <v>10427.3859</v>
       </c>
       <c r="G78" t="n">
-        <v>4066708.6786</v>
+        <v>3350463.0249</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3326,28 +3374,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.52</v>
+        <v>7.3</v>
       </c>
       <c r="C79" t="n">
-        <v>7.52</v>
+        <v>7.3</v>
       </c>
       <c r="D79" t="n">
-        <v>7.52</v>
+        <v>7.3</v>
       </c>
       <c r="E79" t="n">
-        <v>7.52</v>
+        <v>7.3</v>
       </c>
       <c r="F79" t="n">
-        <v>6710.66</v>
+        <v>7820.5395</v>
       </c>
       <c r="G79" t="n">
-        <v>4066708.6786</v>
+        <v>3350463.0249</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3362,28 +3410,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.59</v>
+        <v>7.39</v>
       </c>
       <c r="C80" t="n">
-        <v>7.59</v>
+        <v>7.39</v>
       </c>
       <c r="D80" t="n">
-        <v>7.59</v>
+        <v>7.39</v>
       </c>
       <c r="E80" t="n">
-        <v>7.59</v>
+        <v>7.39</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>15123.3448</v>
       </c>
       <c r="G80" t="n">
-        <v>4066718.6786</v>
+        <v>3365586.3697</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3398,28 +3446,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.52</v>
+        <v>7.39</v>
       </c>
       <c r="C81" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="D81" t="n">
-        <v>7.52</v>
+        <v>7.4</v>
       </c>
       <c r="E81" t="n">
-        <v>7.49</v>
+        <v>7.39</v>
       </c>
       <c r="F81" t="n">
-        <v>369417.1778</v>
+        <v>235163.3783</v>
       </c>
       <c r="G81" t="n">
-        <v>3697301.5008</v>
+        <v>3600749.748</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3434,28 +3482,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="C82" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="D82" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="E82" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="F82" t="n">
-        <v>60011.3382</v>
+        <v>95073.5414</v>
       </c>
       <c r="G82" t="n">
-        <v>3697301.5008</v>
+        <v>3600749.748</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3470,28 +3518,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.5</v>
+        <v>7.33</v>
       </c>
       <c r="C83" t="n">
-        <v>7.5</v>
+        <v>7.33</v>
       </c>
       <c r="D83" t="n">
-        <v>7.5</v>
+        <v>7.33</v>
       </c>
       <c r="E83" t="n">
-        <v>7.5</v>
+        <v>7.33</v>
       </c>
       <c r="F83" t="n">
-        <v>59781.4666</v>
+        <v>470.5663</v>
       </c>
       <c r="G83" t="n">
-        <v>3757082.967399999</v>
+        <v>3600279.1817</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3506,28 +3554,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="C84" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="D84" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="E84" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="F84" t="n">
-        <v>200000</v>
+        <v>13513.5</v>
       </c>
       <c r="G84" t="n">
-        <v>3557082.967399999</v>
+        <v>3613792.6817</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3542,28 +3590,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.46</v>
+        <v>7.4</v>
       </c>
       <c r="C85" t="n">
-        <v>7.45</v>
+        <v>7.4</v>
       </c>
       <c r="D85" t="n">
-        <v>7.46</v>
+        <v>7.4</v>
       </c>
       <c r="E85" t="n">
-        <v>7.45</v>
+        <v>7.4</v>
       </c>
       <c r="F85" t="n">
-        <v>33647.375</v>
+        <v>72071.7966</v>
       </c>
       <c r="G85" t="n">
-        <v>3523435.592399999</v>
+        <v>3613792.6817</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3578,28 +3626,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="C86" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="D86" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="E86" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="F86" t="n">
-        <v>13404.8259</v>
+        <v>144143.5932</v>
       </c>
       <c r="G86" t="n">
-        <v>3510030.766499999</v>
+        <v>3613792.6817</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3614,22 +3662,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.4</v>
+        <v>7.33</v>
       </c>
       <c r="C87" t="n">
-        <v>7.4</v>
+        <v>7.33</v>
       </c>
       <c r="D87" t="n">
-        <v>7.4</v>
+        <v>7.33</v>
       </c>
       <c r="E87" t="n">
-        <v>7.4</v>
+        <v>7.33</v>
       </c>
       <c r="F87" t="n">
-        <v>27952.8392</v>
+        <v>4346.4615</v>
       </c>
       <c r="G87" t="n">
-        <v>3537983.605699999</v>
+        <v>3609446.220199999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3650,22 +3698,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.4</v>
+        <v>7.36</v>
       </c>
       <c r="C88" t="n">
-        <v>7.4</v>
+        <v>7.32</v>
       </c>
       <c r="D88" t="n">
-        <v>7.4</v>
+        <v>7.36</v>
       </c>
       <c r="E88" t="n">
-        <v>7.4</v>
+        <v>7.32</v>
       </c>
       <c r="F88" t="n">
-        <v>2675.1803</v>
+        <v>152764.096</v>
       </c>
       <c r="G88" t="n">
-        <v>3537983.605699999</v>
+        <v>3456682.124199999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3698,10 +3746,10 @@
         <v>7.4</v>
       </c>
       <c r="F89" t="n">
-        <v>9055.6289</v>
+        <v>10998.331</v>
       </c>
       <c r="G89" t="n">
-        <v>3537983.605699999</v>
+        <v>3467680.455199999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3722,7 +3770,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.43</v>
+        <v>7.41</v>
       </c>
       <c r="C90" t="n">
         <v>7.43</v>
@@ -3731,13 +3779,13 @@
         <v>7.43</v>
       </c>
       <c r="E90" t="n">
-        <v>7.43</v>
+        <v>7.39</v>
       </c>
       <c r="F90" t="n">
-        <v>7260.5527</v>
+        <v>334539.2231</v>
       </c>
       <c r="G90" t="n">
-        <v>3545244.158399999</v>
+        <v>3802219.678299999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3758,22 +3806,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.43</v>
+        <v>7.45</v>
       </c>
       <c r="C91" t="n">
-        <v>7.43</v>
+        <v>7.46</v>
       </c>
       <c r="D91" t="n">
-        <v>7.43</v>
+        <v>7.46</v>
       </c>
       <c r="E91" t="n">
-        <v>7.43</v>
+        <v>7.45</v>
       </c>
       <c r="F91" t="n">
-        <v>5321.9097</v>
+        <v>14808.964</v>
       </c>
       <c r="G91" t="n">
-        <v>3545244.158399999</v>
+        <v>3817028.642299999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3794,22 +3842,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
       <c r="C92" t="n">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
       <c r="D92" t="n">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
       <c r="E92" t="n">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
       <c r="F92" t="n">
-        <v>118516</v>
+        <v>14072.964</v>
       </c>
       <c r="G92" t="n">
-        <v>3663760.158399999</v>
+        <v>3831101.6063</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3830,28 +3878,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.47</v>
+        <v>7.5</v>
       </c>
       <c r="C93" t="n">
-        <v>7.47</v>
+        <v>7.5</v>
       </c>
       <c r="D93" t="n">
-        <v>7.47</v>
+        <v>7.5</v>
       </c>
       <c r="E93" t="n">
-        <v>7.47</v>
+        <v>7.5</v>
       </c>
       <c r="F93" t="n">
-        <v>2556.3837</v>
+        <v>368044.0951</v>
       </c>
       <c r="G93" t="n">
-        <v>3661203.774699999</v>
+        <v>4199145.7014</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3866,28 +3914,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.41</v>
+        <v>7.49</v>
       </c>
       <c r="C94" t="n">
-        <v>7.41</v>
+        <v>7.49</v>
       </c>
       <c r="D94" t="n">
-        <v>7.41</v>
+        <v>7.49</v>
       </c>
       <c r="E94" t="n">
-        <v>7.41</v>
+        <v>7.49</v>
       </c>
       <c r="F94" t="n">
-        <v>6756.713</v>
+        <v>364115.0666</v>
       </c>
       <c r="G94" t="n">
-        <v>3654447.061699999</v>
+        <v>3835030.6348</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3902,28 +3950,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.4</v>
+        <v>7.49</v>
       </c>
       <c r="C95" t="n">
-        <v>7.4</v>
+        <v>7.49</v>
       </c>
       <c r="D95" t="n">
-        <v>7.4</v>
+        <v>7.49</v>
       </c>
       <c r="E95" t="n">
-        <v>7.4</v>
+        <v>7.49</v>
       </c>
       <c r="F95" t="n">
-        <v>110010.0203</v>
+        <v>4769</v>
       </c>
       <c r="G95" t="n">
-        <v>3544437.041399999</v>
+        <v>3835030.6348</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3938,28 +3986,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.38</v>
+        <v>7.5</v>
       </c>
       <c r="C96" t="n">
-        <v>7.38</v>
+        <v>7.5</v>
       </c>
       <c r="D96" t="n">
-        <v>7.38</v>
+        <v>7.5</v>
       </c>
       <c r="E96" t="n">
-        <v>7.38</v>
+        <v>7.5</v>
       </c>
       <c r="F96" t="n">
-        <v>11028.1842</v>
+        <v>80707.4666</v>
       </c>
       <c r="G96" t="n">
-        <v>3533408.857199999</v>
+        <v>3915738.1014</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3974,22 +4022,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.38</v>
+        <v>7.5</v>
       </c>
       <c r="C97" t="n">
-        <v>7.38</v>
+        <v>7.5</v>
       </c>
       <c r="D97" t="n">
-        <v>7.38</v>
+        <v>7.5</v>
       </c>
       <c r="E97" t="n">
-        <v>7.38</v>
+        <v>7.5</v>
       </c>
       <c r="F97" t="n">
-        <v>42944.1544</v>
+        <v>407418.7499</v>
       </c>
       <c r="G97" t="n">
-        <v>3533408.857199999</v>
+        <v>3915738.1014</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4010,22 +4058,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.37</v>
+        <v>7.5</v>
       </c>
       <c r="C98" t="n">
-        <v>7.36</v>
+        <v>7.5</v>
       </c>
       <c r="D98" t="n">
-        <v>7.37</v>
+        <v>7.5</v>
       </c>
       <c r="E98" t="n">
-        <v>7.36</v>
+        <v>7.5</v>
       </c>
       <c r="F98" t="n">
-        <v>17361.193</v>
+        <v>82250.2834</v>
       </c>
       <c r="G98" t="n">
-        <v>3516047.664199999</v>
+        <v>3915738.1014</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4046,22 +4094,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.36</v>
+        <v>7.51</v>
       </c>
       <c r="C99" t="n">
-        <v>7.36</v>
+        <v>7.5</v>
       </c>
       <c r="D99" t="n">
-        <v>7.36</v>
+        <v>7.51</v>
       </c>
       <c r="E99" t="n">
-        <v>7.36</v>
+        <v>7.5</v>
       </c>
       <c r="F99" t="n">
-        <v>130067.4711</v>
+        <v>126569.7816</v>
       </c>
       <c r="G99" t="n">
-        <v>3516047.664199999</v>
+        <v>3915738.1014</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4082,22 +4130,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.36</v>
+        <v>7.5</v>
       </c>
       <c r="C100" t="n">
-        <v>7.36</v>
+        <v>7.5</v>
       </c>
       <c r="D100" t="n">
-        <v>7.36</v>
+        <v>7.5</v>
       </c>
       <c r="E100" t="n">
-        <v>7.36</v>
+        <v>7.5</v>
       </c>
       <c r="F100" t="n">
-        <v>2990.4259</v>
+        <v>228301.3981</v>
       </c>
       <c r="G100" t="n">
-        <v>3516047.664199999</v>
+        <v>3915738.1014</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4118,22 +4166,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.32</v>
+        <v>7.49</v>
       </c>
       <c r="C101" t="n">
-        <v>7.32</v>
+        <v>7.49</v>
       </c>
       <c r="D101" t="n">
-        <v>7.32</v>
+        <v>7.49</v>
       </c>
       <c r="E101" t="n">
-        <v>7.32</v>
+        <v>7.49</v>
       </c>
       <c r="F101" t="n">
-        <v>96734.6415</v>
+        <v>4040.2712</v>
       </c>
       <c r="G101" t="n">
-        <v>3419313.022699999</v>
+        <v>3911697.8302</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4154,22 +4202,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.32</v>
+        <v>7.51</v>
       </c>
       <c r="C102" t="n">
-        <v>7.32</v>
+        <v>7.51</v>
       </c>
       <c r="D102" t="n">
-        <v>7.32</v>
+        <v>7.51</v>
       </c>
       <c r="E102" t="n">
-        <v>7.32</v>
+        <v>7.51</v>
       </c>
       <c r="F102" t="n">
-        <v>31.6939</v>
+        <v>112353.7237</v>
       </c>
       <c r="G102" t="n">
-        <v>3419313.022699999</v>
+        <v>4024051.5539</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4190,22 +4238,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.31</v>
+        <v>7.52</v>
       </c>
       <c r="C103" t="n">
-        <v>7.31</v>
+        <v>7.52</v>
       </c>
       <c r="D103" t="n">
-        <v>7.31</v>
+        <v>7.52</v>
       </c>
       <c r="E103" t="n">
-        <v>7.31</v>
+        <v>7.52</v>
       </c>
       <c r="F103" t="n">
-        <v>4166.4214</v>
+        <v>250.525</v>
       </c>
       <c r="G103" t="n">
-        <v>3415146.601299999</v>
+        <v>4024302.0789</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4226,28 +4274,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.37</v>
+        <v>7.52</v>
       </c>
       <c r="C104" t="n">
-        <v>7.37</v>
+        <v>7.52</v>
       </c>
       <c r="D104" t="n">
-        <v>7.37</v>
+        <v>7.52</v>
       </c>
       <c r="E104" t="n">
-        <v>7.37</v>
+        <v>7.52</v>
       </c>
       <c r="F104" t="n">
-        <v>4068.1547</v>
+        <v>8000</v>
       </c>
       <c r="G104" t="n">
-        <v>3419214.755999999</v>
+        <v>4024302.0789</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4262,28 +4310,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.31</v>
+        <v>7.52</v>
       </c>
       <c r="C105" t="n">
-        <v>7.3</v>
+        <v>7.52</v>
       </c>
       <c r="D105" t="n">
-        <v>7.31</v>
+        <v>7.52</v>
       </c>
       <c r="E105" t="n">
-        <v>7.3</v>
+        <v>7.52</v>
       </c>
       <c r="F105" t="n">
-        <v>101947.3126</v>
+        <v>8780.053099999999</v>
       </c>
       <c r="G105" t="n">
-        <v>3317267.443399999</v>
+        <v>4024302.0789</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4298,28 +4346,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.3</v>
+        <v>7.51</v>
       </c>
       <c r="C106" t="n">
-        <v>7.3</v>
+        <v>7.51</v>
       </c>
       <c r="D106" t="n">
-        <v>7.3</v>
+        <v>7.51</v>
       </c>
       <c r="E106" t="n">
-        <v>7.3</v>
+        <v>7.51</v>
       </c>
       <c r="F106" t="n">
-        <v>106341.2327</v>
+        <v>58593.4003</v>
       </c>
       <c r="G106" t="n">
-        <v>3317267.443399999</v>
+        <v>3965708.6786</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4334,28 +4382,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7.35</v>
+        <v>7.52</v>
       </c>
       <c r="C107" t="n">
-        <v>7.35</v>
+        <v>7.52</v>
       </c>
       <c r="D107" t="n">
-        <v>7.35</v>
+        <v>7.52</v>
       </c>
       <c r="E107" t="n">
-        <v>7.35</v>
+        <v>7.52</v>
       </c>
       <c r="F107" t="n">
-        <v>4073.8473</v>
+        <v>101000</v>
       </c>
       <c r="G107" t="n">
-        <v>3321341.290699999</v>
+        <v>4066708.6786</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4365,6 +4413,1050 @@
       </c>
       <c r="N107" t="inlineStr"/>
     </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C108" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6710.66</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4066708.6786</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4066718.6786</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F110" t="n">
+        <v>369417.1778</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3697301.5008</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F111" t="n">
+        <v>60011.3382</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3697301.5008</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>59781.4666</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3757082.967399999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F113" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3557082.967399999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="C114" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="D114" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="F114" t="n">
+        <v>33647.375</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3523435.592399999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="D115" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13404.8259</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3510030.766499999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D116" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E116" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>27952.8392</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3537983.605699999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E117" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2675.1803</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3537983.605699999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D118" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9055.6289</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3537983.605699999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C119" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D119" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E119" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="F119" t="n">
+        <v>7260.5527</v>
+      </c>
+      <c r="G119" t="n">
+        <v>3545244.158399999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5321.9097</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3545244.158399999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>118516</v>
+      </c>
+      <c r="G121" t="n">
+        <v>3663760.158399999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2556.3837</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3661203.774699999</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="F123" t="n">
+        <v>6756.713</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3654447.061699999</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>110010.0203</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3544437.041399999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E125" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F125" t="n">
+        <v>11028.1842</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3533408.857199999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E126" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F126" t="n">
+        <v>42944.1544</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3533408.857199999</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="C127" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="E127" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F127" t="n">
+        <v>17361.193</v>
+      </c>
+      <c r="G127" t="n">
+        <v>3516047.664199999</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="C128" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="E128" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F128" t="n">
+        <v>130067.4711</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3516047.664199999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2990.4259</v>
+      </c>
+      <c r="G129" t="n">
+        <v>3516047.664199999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="E130" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="F130" t="n">
+        <v>96734.6415</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3419313.022699999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="E131" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="F131" t="n">
+        <v>31.6939</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3419313.022699999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C132" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E132" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4166.4214</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3415146.601299999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="C133" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="D133" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="E133" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4068.1547</v>
+      </c>
+      <c r="G133" t="n">
+        <v>3419214.755999999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C134" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E134" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>101947.3126</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3317267.443399999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>106341.2327</v>
+      </c>
+      <c r="G135" t="n">
+        <v>3317267.443399999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="D136" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4073.8473</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3321341.290699999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-02 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-02 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1177,17 +1177,11 @@
         <v>2029874.965499999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1220,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1257,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1294,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1327,7 +1309,7 @@
         <v>1719425.8331</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>7.18</v>
@@ -1335,7 +1317,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1366,7 +1348,7 @@
         <v>1719425.8331</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>7.17</v>
@@ -1405,7 +1387,7 @@
         <v>1762892.4908</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>7.17</v>
@@ -1444,9 +1426,11 @@
         <v>1762892.4908</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.2</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1481,7 +1465,7 @@
         <v>1762892.4908</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>7.2</v>
@@ -1520,7 +1504,7 @@
         <v>1774417.6379</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>7.2</v>
@@ -1559,7 +1543,7 @@
         <v>1810788.0544</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>7.32</v>
@@ -1598,7 +1582,7 @@
         <v>1894319.5287</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>7.33</v>
@@ -1637,7 +1621,7 @@
         <v>2048506.507</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>7.39</v>
@@ -1676,7 +1660,7 @@
         <v>2017080.2648</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>7.41</v>
@@ -1715,7 +1699,7 @@
         <v>2096558.0177</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>7.39</v>
@@ -1754,7 +1738,7 @@
         <v>2802809.539799999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>7.4</v>
@@ -1793,7 +1777,7 @@
         <v>2767405.675499999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>7.43</v>
@@ -1832,7 +1816,7 @@
         <v>2767405.675499999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>7.4</v>
@@ -1871,7 +1855,7 @@
         <v>2962276.976199999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>7.4</v>
@@ -1947,11 +1931,9 @@
         <v>3179772.267899999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>7.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -1986,7 +1968,7 @@
         <v>3436253.501499999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>7.5</v>
@@ -2099,7 +2081,7 @@
         <v>3857627.355099999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2173,16 +2155,18 @@
         <v>3888018.8317</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
       <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2208,11 +2192,15 @@
         <v>4261180.397499999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2241,11 +2229,15 @@
         <v>4098936.695899999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2274,11 +2266,15 @@
         <v>4344664.697999999</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2307,11 +2303,15 @@
         <v>4256109.991599999</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2340,11 +2340,15 @@
         <v>4110455.4112</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2373,11 +2377,15 @@
         <v>3896147.2212</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2410,7 +2418,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2439,11 +2451,15 @@
         <v>3508653.0636</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2472,11 +2488,15 @@
         <v>3508744.1886</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2509,7 +2529,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2542,7 +2566,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2575,7 +2603,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2604,11 +2636,15 @@
         <v>3515640.009299999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2637,11 +2673,15 @@
         <v>3511646.402399999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2670,11 +2710,15 @@
         <v>3493462.775399999</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2703,11 +2747,15 @@
         <v>3498585.775399999</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2740,7 +2788,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2769,11 +2821,15 @@
         <v>3255781.859899999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2806,7 +2862,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2839,7 +2899,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2868,11 +2932,15 @@
         <v>3394279.649099999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2901,11 +2969,15 @@
         <v>3394279.649099999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2934,11 +3006,15 @@
         <v>3398242.603299999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2967,11 +3043,15 @@
         <v>3398242.603299999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3000,11 +3080,15 @@
         <v>3398242.603299999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3037,7 +3121,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3070,7 +3158,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3103,7 +3195,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3136,7 +3232,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3165,11 +3265,15 @@
         <v>3365586.3697</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3202,7 +3306,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3235,7 +3343,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3264,11 +3376,15 @@
         <v>3600279.1817</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3301,7 +3417,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3334,7 +3454,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3363,14 +3487,16 @@
         <v>3613792.6817</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -3396,7 +3522,7 @@
         <v>3609446.220199999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3429,7 +3555,7 @@
         <v>3456682.124199999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3462,7 +3588,7 @@
         <v>3467680.455199999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3495,7 +3621,7 @@
         <v>3802219.678299999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3528,7 +3654,7 @@
         <v>3817028.642299999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3561,7 +3687,7 @@
         <v>3831101.6063</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3594,7 +3720,7 @@
         <v>4199145.7014</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3627,7 +3753,7 @@
         <v>3835030.6348</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3660,7 +3786,7 @@
         <v>3835030.6348</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3693,7 +3819,7 @@
         <v>3915738.1014</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3726,7 +3852,7 @@
         <v>3915738.1014</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3759,7 +3885,7 @@
         <v>3915738.1014</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3792,7 +3918,7 @@
         <v>3915738.1014</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3825,7 +3951,7 @@
         <v>3915738.1014</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3858,7 +3984,7 @@
         <v>3911697.8302</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3891,7 +4017,7 @@
         <v>4024051.5539</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3924,7 +4050,7 @@
         <v>4024302.0789</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3957,7 +4083,7 @@
         <v>4024302.0789</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3990,7 +4116,7 @@
         <v>4024302.0789</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4023,7 +4149,7 @@
         <v>3965708.6786</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4056,7 +4182,7 @@
         <v>4066708.6786</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4089,7 +4215,7 @@
         <v>4066708.6786</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4122,7 +4248,7 @@
         <v>4066718.6786</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4155,7 +4281,7 @@
         <v>3697301.5008</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4188,7 +4314,7 @@
         <v>3697301.5008</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4221,7 +4347,7 @@
         <v>3757082.967399999</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4254,7 +4380,7 @@
         <v>3557082.967399999</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4287,7 +4413,7 @@
         <v>3523435.592399999</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4320,7 +4446,7 @@
         <v>3510030.766499999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4353,7 +4479,7 @@
         <v>3537983.605699999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4386,7 +4512,7 @@
         <v>3537983.605699999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4419,7 +4545,7 @@
         <v>3537983.605699999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4452,7 +4578,7 @@
         <v>3545244.158399999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4485,7 +4611,7 @@
         <v>3545244.158399999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4518,7 +4644,7 @@
         <v>3663760.158399999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4551,7 +4677,7 @@
         <v>3661203.774699999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4584,7 +4710,7 @@
         <v>3654447.061699999</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4617,7 +4743,7 @@
         <v>3544437.041399999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4650,7 +4776,7 @@
         <v>3533408.857199999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4683,7 +4809,7 @@
         <v>3533408.857199999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4716,7 +4842,7 @@
         <v>3516047.664199999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4749,7 +4875,7 @@
         <v>3516047.664199999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4782,7 +4908,7 @@
         <v>3516047.664199999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4817,12 +4943,8 @@
       <c r="H130" t="n">
         <v>2</v>
       </c>
-      <c r="I130" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="J130" t="n">
-        <v>7.36</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
@@ -4852,17 +4974,11 @@
         <v>3419313.022699999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4893,17 +5009,9 @@
       <c r="H132" t="n">
         <v>2</v>
       </c>
-      <c r="I132" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="J132" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4934,12 +5042,8 @@
       <c r="H133" t="n">
         <v>2</v>
       </c>
-      <c r="I133" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="J133" t="n">
-        <v>7.31</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4969,17 +5073,11 @@
         <v>3317267.443399999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5010,17 +5108,9 @@
       <c r="H135" t="n">
         <v>2</v>
       </c>
-      <c r="I135" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J135" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5051,23 +5141,15 @@
       <c r="H136" t="n">
         <v>2</v>
       </c>
-      <c r="I136" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J136" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-02 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1309,17 +1309,11 @@
         <v>1719425.8331</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1348,17 +1342,11 @@
         <v>1719425.8331</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1392,12 +1380,10 @@
       <c r="I30" t="n">
         <v>7.17</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1431,10 +1417,12 @@
       <c r="I31" t="n">
         <v>7.2</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>7.17</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1470,10 +1458,12 @@
       <c r="I32" t="n">
         <v>7.2</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>7.17</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1509,12 +1499,10 @@
       <c r="I33" t="n">
         <v>7.2</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1543,15 +1531,15 @@
         <v>1810788.0544</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>7.2</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1582,15 +1570,15 @@
         <v>1894319.5287</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>7.2</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1621,17 +1609,11 @@
         <v>2048506.507</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1660,17 +1642,11 @@
         <v>2017080.2648</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1699,17 +1675,11 @@
         <v>2096558.0177</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1738,17 +1708,11 @@
         <v>2802809.539799999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>7.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1777,17 +1741,11 @@
         <v>2767405.675499999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1816,17 +1774,11 @@
         <v>2767405.675499999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1855,17 +1807,11 @@
         <v>2962276.976199999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1894,15 +1840,11 @@
         <v>2905372.4399</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1931,15 +1873,11 @@
         <v>3179772.267899999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1968,17 +1906,11 @@
         <v>3436253.501499999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2007,15 +1939,11 @@
         <v>3795494.489899999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2044,15 +1972,11 @@
         <v>3782266.334599999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2081,15 +2005,11 @@
         <v>3857627.355099999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2118,15 +2038,11 @@
         <v>3857627.355099999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2155,15 +2071,11 @@
         <v>3888018.8317</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2192,15 +2104,11 @@
         <v>4261180.397499999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2229,15 +2137,11 @@
         <v>4098936.695899999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2266,15 +2170,11 @@
         <v>4344664.697999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2303,15 +2203,11 @@
         <v>4256109.991599999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2340,15 +2236,11 @@
         <v>4110455.4112</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2377,15 +2269,11 @@
         <v>3896147.2212</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2418,11 +2306,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2455,11 +2339,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2492,11 +2372,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2529,11 +2405,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2566,11 +2438,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2603,11 +2471,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2640,11 +2504,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2677,11 +2537,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2714,11 +2570,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2751,11 +2603,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2788,11 +2636,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2825,11 +2669,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2862,11 +2702,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2899,11 +2735,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2936,11 +2768,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2973,11 +2801,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +2834,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3047,11 +2867,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3084,11 +2900,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3121,11 +2933,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3158,11 +2966,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3195,11 +2999,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3232,11 +3032,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3269,11 +3065,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3306,11 +3098,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3343,11 +3131,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3380,11 +3164,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3417,11 +3197,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3230,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3487,16 +3259,14 @@
         <v>3613792.6817</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
       <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -3522,7 +3292,7 @@
         <v>3609446.220199999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3555,7 +3325,7 @@
         <v>3456682.124199999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3588,7 +3358,7 @@
         <v>3467680.455199999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3621,7 +3391,7 @@
         <v>3802219.678299999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3654,7 +3424,7 @@
         <v>3817028.642299999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3687,7 +3457,7 @@
         <v>3831101.6063</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3720,7 +3490,7 @@
         <v>4199145.7014</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3753,7 +3523,7 @@
         <v>3835030.6348</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3786,7 +3556,7 @@
         <v>3835030.6348</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3819,7 +3589,7 @@
         <v>3915738.1014</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3852,7 +3622,7 @@
         <v>3915738.1014</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3885,7 +3655,7 @@
         <v>3915738.1014</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3918,7 +3688,7 @@
         <v>3915738.1014</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3951,7 +3721,7 @@
         <v>3915738.1014</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3984,7 +3754,7 @@
         <v>3911697.8302</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4017,7 +3787,7 @@
         <v>4024051.5539</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4050,7 +3820,7 @@
         <v>4024302.0789</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4083,7 +3853,7 @@
         <v>4024302.0789</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4116,7 +3886,7 @@
         <v>4024302.0789</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4182,7 +3952,7 @@
         <v>4066708.6786</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4215,7 +3985,7 @@
         <v>4066708.6786</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4248,7 +4018,7 @@
         <v>4066718.6786</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4281,7 +4051,7 @@
         <v>3697301.5008</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4314,7 +4084,7 @@
         <v>3697301.5008</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4347,7 +4117,7 @@
         <v>3757082.967399999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4380,7 +4150,7 @@
         <v>3557082.967399999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4413,7 +4183,7 @@
         <v>3523435.592399999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4446,7 +4216,7 @@
         <v>3510030.766499999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4479,7 +4249,7 @@
         <v>3537983.605699999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4512,7 +4282,7 @@
         <v>3537983.605699999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4545,7 +4315,7 @@
         <v>3537983.605699999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4578,7 +4348,7 @@
         <v>3545244.158399999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4611,7 +4381,7 @@
         <v>3545244.158399999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4644,7 +4414,7 @@
         <v>3663760.158399999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4677,7 +4447,7 @@
         <v>3661203.774699999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4710,7 +4480,7 @@
         <v>3654447.061699999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4743,7 +4513,7 @@
         <v>3544437.041399999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4776,7 +4546,7 @@
         <v>3533408.857199999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4809,7 +4579,7 @@
         <v>3533408.857199999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4842,7 +4612,7 @@
         <v>3516047.664199999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4875,7 +4645,7 @@
         <v>3516047.664199999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4908,7 +4678,7 @@
         <v>3516047.664199999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4941,7 +4711,7 @@
         <v>3419313.022699999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4974,7 +4744,7 @@
         <v>3419313.022699999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5007,7 +4777,7 @@
         <v>3415146.601299999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5040,7 +4810,7 @@
         <v>3419214.755999999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5073,7 +4843,7 @@
         <v>3317267.443399999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5106,7 +4876,7 @@
         <v>3317267.443399999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5139,7 +4909,7 @@
         <v>3321341.290699999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5150,6 +4920,6 @@
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-02 BackTest ZIL.xlsx
@@ -1342,10 +1342,14 @@
         <v>1719425.8331</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7.17</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1383,7 +1387,11 @@
       <c r="J30" t="n">
         <v>7.17</v>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1463,7 +1471,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1500,9 +1508,13 @@
         <v>7.2</v>
       </c>
       <c r="J33" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+        <v>7.17</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1531,15 +1543,17 @@
         <v>1810788.0544</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7.32</v>
+      </c>
       <c r="J34" t="n">
-        <v>7.2</v>
+        <v>7.17</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1570,15 +1584,17 @@
         <v>1894319.5287</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7.33</v>
+      </c>
       <c r="J35" t="n">
-        <v>7.2</v>
+        <v>7.17</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1609,11 +1625,19 @@
         <v>2048506.507</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1642,11 +1666,19 @@
         <v>2017080.2648</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1675,11 +1707,19 @@
         <v>2096558.0177</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1708,11 +1748,19 @@
         <v>2802809.539799999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1744,8 +1792,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1777,8 +1831,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1810,8 +1870,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1840,11 +1906,17 @@
         <v>2905372.4399</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1873,11 +1945,17 @@
         <v>3179772.267899999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1909,8 +1987,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1939,11 +2023,17 @@
         <v>3795494.489899999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1972,11 +2062,17 @@
         <v>3782266.334599999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2005,11 +2101,17 @@
         <v>3857627.355099999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2038,11 +2140,17 @@
         <v>3857627.355099999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2071,11 +2179,17 @@
         <v>3888018.8317</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2107,12 +2221,20 @@
         <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>1.068919107391911</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.03765690376569</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2302,7 +2424,7 @@
         <v>3896158.2212</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2335,7 +2457,7 @@
         <v>3508653.0636</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2368,7 +2490,7 @@
         <v>3508744.1886</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2401,7 +2523,7 @@
         <v>3508744.1886</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2533,7 +2655,7 @@
         <v>3511646.402399999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2566,7 +2688,7 @@
         <v>3493462.775399999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-02 BackTest ZIL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>153834.245</v>
       </c>
       <c r="G2" t="n">
-        <v>2082107.2377</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>896.4155</v>
       </c>
       <c r="G3" t="n">
-        <v>2081210.8222</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,19 @@
         <v>68765.1283</v>
       </c>
       <c r="G4" t="n">
-        <v>2081210.8222</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>7.19</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.19</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +537,23 @@
         <v>74128.24460000001</v>
       </c>
       <c r="G5" t="n">
-        <v>2155339.0668</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>7.19</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +575,21 @@
         <v>7006.0193</v>
       </c>
       <c r="G6" t="n">
-        <v>2162345.086099999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +611,15 @@
         <v>30000</v>
       </c>
       <c r="G7" t="n">
-        <v>2192345.086099999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +641,15 @@
         <v>47345.0803</v>
       </c>
       <c r="G8" t="n">
-        <v>2145000.005799999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +671,15 @@
         <v>115996.9843</v>
       </c>
       <c r="G9" t="n">
-        <v>2029003.0215</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +701,15 @@
         <v>13826</v>
       </c>
       <c r="G10" t="n">
-        <v>2015177.0215</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +731,15 @@
         <v>1400</v>
       </c>
       <c r="G11" t="n">
-        <v>2016577.0215</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +761,15 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>2016567.0215</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +791,15 @@
         <v>70</v>
       </c>
       <c r="G13" t="n">
-        <v>2016567.0215</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +821,15 @@
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>2016567.0215</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +851,15 @@
         <v>60</v>
       </c>
       <c r="G15" t="n">
-        <v>2016567.0215</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +881,15 @@
         <v>13277.944</v>
       </c>
       <c r="G16" t="n">
-        <v>2029844.965499999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +911,15 @@
         <v>120</v>
       </c>
       <c r="G17" t="n">
-        <v>2029844.965499999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +941,15 @@
         <v>67989.6731</v>
       </c>
       <c r="G18" t="n">
-        <v>2029844.965499999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +971,15 @@
         <v>140</v>
       </c>
       <c r="G19" t="n">
-        <v>2029984.965499999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1001,15 @@
         <v>10540</v>
       </c>
       <c r="G20" t="n">
-        <v>2029984.965499999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1031,15 @@
         <v>70</v>
       </c>
       <c r="G21" t="n">
-        <v>2029984.965499999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1061,15 @@
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>2029984.965499999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1091,15 @@
         <v>70</v>
       </c>
       <c r="G23" t="n">
-        <v>2029984.965499999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1121,15 @@
         <v>110</v>
       </c>
       <c r="G24" t="n">
-        <v>2029874.965499999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1151,15 @@
         <v>11360</v>
       </c>
       <c r="G25" t="n">
-        <v>2041234.965499999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1181,15 @@
         <v>418.5314</v>
       </c>
       <c r="G26" t="n">
-        <v>2040816.434099999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1211,15 @@
         <v>171798.7905</v>
       </c>
       <c r="G27" t="n">
-        <v>1869017.6436</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1241,15 @@
         <v>149591.8105</v>
       </c>
       <c r="G28" t="n">
-        <v>1719425.8331</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,22 +1271,15 @@
         <v>45754.3765</v>
       </c>
       <c r="G29" t="n">
-        <v>1719425.8331</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J29" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1376,26 +1301,15 @@
         <v>43466.6577</v>
       </c>
       <c r="G30" t="n">
-        <v>1762892.4908</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J30" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1417,26 +1331,15 @@
         <v>41293.3248</v>
       </c>
       <c r="G31" t="n">
-        <v>1762892.4908</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1458,26 +1361,15 @@
         <v>65711.41650000001</v>
       </c>
       <c r="G32" t="n">
-        <v>1762892.4908</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1499,26 +1391,15 @@
         <v>11525.1471</v>
       </c>
       <c r="G33" t="n">
-        <v>1774417.6379</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1540,26 +1421,15 @@
         <v>36370.4165</v>
       </c>
       <c r="G34" t="n">
-        <v>1810788.0544</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="J34" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1581,26 +1451,15 @@
         <v>83531.4743</v>
       </c>
       <c r="G35" t="n">
-        <v>1894319.5287</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="J35" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1622,26 +1481,15 @@
         <v>154186.9783</v>
       </c>
       <c r="G36" t="n">
-        <v>2048506.507</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="J36" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1663,26 +1511,15 @@
         <v>31426.2422</v>
       </c>
       <c r="G37" t="n">
-        <v>2017080.2648</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="J37" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1704,26 +1541,15 @@
         <v>79477.75290000001</v>
       </c>
       <c r="G38" t="n">
-        <v>2096558.0177</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="J38" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1745,26 +1571,15 @@
         <v>706251.5220999999</v>
       </c>
       <c r="G39" t="n">
-        <v>2802809.539799999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1786,24 +1601,15 @@
         <v>35403.8643</v>
       </c>
       <c r="G40" t="n">
-        <v>2767405.675499999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1825,24 +1631,15 @@
         <v>16045.608</v>
       </c>
       <c r="G41" t="n">
-        <v>2767405.675499999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1864,24 +1661,15 @@
         <v>194871.3007</v>
       </c>
       <c r="G42" t="n">
-        <v>2962276.976199999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1903,24 +1691,15 @@
         <v>56904.5363</v>
       </c>
       <c r="G43" t="n">
-        <v>2905372.4399</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1942,24 +1721,15 @@
         <v>274399.828</v>
       </c>
       <c r="G44" t="n">
-        <v>3179772.267899999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1981,24 +1751,15 @@
         <v>256481.2336</v>
       </c>
       <c r="G45" t="n">
-        <v>3436253.501499999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2020,24 +1781,15 @@
         <v>359240.9884</v>
       </c>
       <c r="G46" t="n">
-        <v>3795494.489899999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2059,24 +1811,15 @@
         <v>13228.1553</v>
       </c>
       <c r="G47" t="n">
-        <v>3782266.334599999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2098,24 +1841,15 @@
         <v>75361.0205</v>
       </c>
       <c r="G48" t="n">
-        <v>3857627.355099999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2137,24 +1871,15 @@
         <v>34777.4225</v>
       </c>
       <c r="G49" t="n">
-        <v>3857627.355099999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2176,24 +1901,15 @@
         <v>30391.4766</v>
       </c>
       <c r="G50" t="n">
-        <v>3888018.8317</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2215,26 +1931,15 @@
         <v>373161.5658</v>
       </c>
       <c r="G51" t="n">
-        <v>4261180.397499999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1.068919107391911</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.03765690376569</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +1961,15 @@
         <v>162243.7016</v>
       </c>
       <c r="G52" t="n">
-        <v>4098936.695899999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2289,18 +1991,15 @@
         <v>245728.0021</v>
       </c>
       <c r="G53" t="n">
-        <v>4344664.697999999</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2322,18 +2021,15 @@
         <v>88554.7064</v>
       </c>
       <c r="G54" t="n">
-        <v>4256109.991599999</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2355,18 +2051,15 @@
         <v>145654.5804</v>
       </c>
       <c r="G55" t="n">
-        <v>4110455.4112</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2388,18 +2081,15 @@
         <v>214308.19</v>
       </c>
       <c r="G56" t="n">
-        <v>3896147.2212</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2421,18 +2111,15 @@
         <v>11</v>
       </c>
       <c r="G57" t="n">
-        <v>3896158.2212</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2454,18 +2141,15 @@
         <v>387505.1576</v>
       </c>
       <c r="G58" t="n">
-        <v>3508653.0636</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2487,18 +2171,15 @@
         <v>91.125</v>
       </c>
       <c r="G59" t="n">
-        <v>3508744.1886</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2520,18 +2201,15 @@
         <v>4278.616</v>
       </c>
       <c r="G60" t="n">
-        <v>3508744.1886</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2553,18 +2231,15 @@
         <v>25520.914</v>
       </c>
       <c r="G61" t="n">
-        <v>3534265.102599999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2586,18 +2261,15 @@
         <v>27222.2017</v>
       </c>
       <c r="G62" t="n">
-        <v>3507042.900899999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2619,18 +2291,15 @@
         <v>8597.108399999999</v>
       </c>
       <c r="G63" t="n">
-        <v>3515640.009299999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2652,18 +2321,15 @@
         <v>3993.6069</v>
       </c>
       <c r="G64" t="n">
-        <v>3511646.402399999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2685,18 +2351,15 @@
         <v>18183.627</v>
       </c>
       <c r="G65" t="n">
-        <v>3493462.775399999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2718,18 +2381,15 @@
         <v>5123</v>
       </c>
       <c r="G66" t="n">
-        <v>3498585.775399999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2751,18 +2411,15 @@
         <v>164813.9681</v>
       </c>
       <c r="G67" t="n">
-        <v>3333771.807299999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2784,18 +2441,15 @@
         <v>77989.9474</v>
       </c>
       <c r="G68" t="n">
-        <v>3255781.859899999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2817,18 +2471,15 @@
         <v>72071.7966</v>
       </c>
       <c r="G69" t="n">
-        <v>3255781.859899999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2850,18 +2501,15 @@
         <v>138497.7892</v>
       </c>
       <c r="G70" t="n">
-        <v>3394279.649099999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2883,18 +2531,15 @@
         <v>2702.7</v>
       </c>
       <c r="G71" t="n">
-        <v>3394279.649099999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2916,18 +2561,15 @@
         <v>2702.7</v>
       </c>
       <c r="G72" t="n">
-        <v>3394279.649099999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2949,18 +2591,15 @@
         <v>3962.9542</v>
       </c>
       <c r="G73" t="n">
-        <v>3398242.603299999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,18 +2621,15 @@
         <v>23259.2475</v>
       </c>
       <c r="G74" t="n">
-        <v>3398242.603299999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3015,18 +2651,15 @@
         <v>132299.1629</v>
       </c>
       <c r="G75" t="n">
-        <v>3398242.603299999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3048,18 +2681,15 @@
         <v>39211.601</v>
       </c>
       <c r="G76" t="n">
-        <v>3359031.002299999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3081,18 +2711,15 @@
         <v>18995.3633</v>
       </c>
       <c r="G77" t="n">
-        <v>3340035.639</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3114,18 +2741,15 @@
         <v>10427.3859</v>
       </c>
       <c r="G78" t="n">
-        <v>3350463.0249</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3147,18 +2771,15 @@
         <v>7820.5395</v>
       </c>
       <c r="G79" t="n">
-        <v>3350463.0249</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3180,18 +2801,15 @@
         <v>15123.3448</v>
       </c>
       <c r="G80" t="n">
-        <v>3365586.3697</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3213,18 +2831,15 @@
         <v>235163.3783</v>
       </c>
       <c r="G81" t="n">
-        <v>3600749.748</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3246,18 +2861,15 @@
         <v>95073.5414</v>
       </c>
       <c r="G82" t="n">
-        <v>3600749.748</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3279,18 +2891,15 @@
         <v>470.5663</v>
       </c>
       <c r="G83" t="n">
-        <v>3600279.1817</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3312,18 +2921,15 @@
         <v>13513.5</v>
       </c>
       <c r="G84" t="n">
-        <v>3613792.6817</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3345,18 +2951,15 @@
         <v>72071.7966</v>
       </c>
       <c r="G85" t="n">
-        <v>3613792.6817</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3378,18 +2981,15 @@
         <v>144143.5932</v>
       </c>
       <c r="G86" t="n">
-        <v>3613792.6817</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3411,18 +3011,15 @@
         <v>4346.4615</v>
       </c>
       <c r="G87" t="n">
-        <v>3609446.220199999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3444,18 +3041,15 @@
         <v>152764.096</v>
       </c>
       <c r="G88" t="n">
-        <v>3456682.124199999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3477,18 +3071,15 @@
         <v>10998.331</v>
       </c>
       <c r="G89" t="n">
-        <v>3467680.455199999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3510,18 +3101,15 @@
         <v>334539.2231</v>
       </c>
       <c r="G90" t="n">
-        <v>3802219.678299999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3543,18 +3131,15 @@
         <v>14808.964</v>
       </c>
       <c r="G91" t="n">
-        <v>3817028.642299999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3576,18 +3161,15 @@
         <v>14072.964</v>
       </c>
       <c r="G92" t="n">
-        <v>3831101.6063</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3609,18 +3191,15 @@
         <v>368044.0951</v>
       </c>
       <c r="G93" t="n">
-        <v>4199145.7014</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3642,18 +3221,15 @@
         <v>364115.0666</v>
       </c>
       <c r="G94" t="n">
-        <v>3835030.6348</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3675,18 +3251,15 @@
         <v>4769</v>
       </c>
       <c r="G95" t="n">
-        <v>3835030.6348</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3708,18 +3281,15 @@
         <v>80707.4666</v>
       </c>
       <c r="G96" t="n">
-        <v>3915738.1014</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3741,18 +3311,15 @@
         <v>407418.7499</v>
       </c>
       <c r="G97" t="n">
-        <v>3915738.1014</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3774,18 +3341,15 @@
         <v>82250.2834</v>
       </c>
       <c r="G98" t="n">
-        <v>3915738.1014</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3807,18 +3371,15 @@
         <v>126569.7816</v>
       </c>
       <c r="G99" t="n">
-        <v>3915738.1014</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3840,18 +3401,15 @@
         <v>228301.3981</v>
       </c>
       <c r="G100" t="n">
-        <v>3915738.1014</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3873,18 +3431,15 @@
         <v>4040.2712</v>
       </c>
       <c r="G101" t="n">
-        <v>3911697.8302</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3906,18 +3461,15 @@
         <v>112353.7237</v>
       </c>
       <c r="G102" t="n">
-        <v>4024051.5539</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3939,18 +3491,15 @@
         <v>250.525</v>
       </c>
       <c r="G103" t="n">
-        <v>4024302.0789</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3972,18 +3521,15 @@
         <v>8000</v>
       </c>
       <c r="G104" t="n">
-        <v>4024302.0789</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4005,18 +3551,15 @@
         <v>8780.053099999999</v>
       </c>
       <c r="G105" t="n">
-        <v>4024302.0789</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4038,18 +3581,15 @@
         <v>58593.4003</v>
       </c>
       <c r="G106" t="n">
-        <v>3965708.6786</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4071,18 +3611,15 @@
         <v>101000</v>
       </c>
       <c r="G107" t="n">
-        <v>4066708.6786</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4104,18 +3641,15 @@
         <v>6710.66</v>
       </c>
       <c r="G108" t="n">
-        <v>4066708.6786</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4137,18 +3671,15 @@
         <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>4066718.6786</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4170,18 +3701,15 @@
         <v>369417.1778</v>
       </c>
       <c r="G110" t="n">
-        <v>3697301.5008</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4203,18 +3731,15 @@
         <v>60011.3382</v>
       </c>
       <c r="G111" t="n">
-        <v>3697301.5008</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4236,18 +3761,15 @@
         <v>59781.4666</v>
       </c>
       <c r="G112" t="n">
-        <v>3757082.967399999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4269,18 +3791,15 @@
         <v>200000</v>
       </c>
       <c r="G113" t="n">
-        <v>3557082.967399999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4302,18 +3821,15 @@
         <v>33647.375</v>
       </c>
       <c r="G114" t="n">
-        <v>3523435.592399999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4335,18 +3851,15 @@
         <v>13404.8259</v>
       </c>
       <c r="G115" t="n">
-        <v>3510030.766499999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4368,18 +3881,15 @@
         <v>27952.8392</v>
       </c>
       <c r="G116" t="n">
-        <v>3537983.605699999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4401,18 +3911,15 @@
         <v>2675.1803</v>
       </c>
       <c r="G117" t="n">
-        <v>3537983.605699999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4434,18 +3941,15 @@
         <v>9055.6289</v>
       </c>
       <c r="G118" t="n">
-        <v>3537983.605699999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4467,18 +3971,15 @@
         <v>7260.5527</v>
       </c>
       <c r="G119" t="n">
-        <v>3545244.158399999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4500,18 +4001,15 @@
         <v>5321.9097</v>
       </c>
       <c r="G120" t="n">
-        <v>3545244.158399999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4533,18 +4031,15 @@
         <v>118516</v>
       </c>
       <c r="G121" t="n">
-        <v>3663760.158399999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4566,18 +4061,15 @@
         <v>2556.3837</v>
       </c>
       <c r="G122" t="n">
-        <v>3661203.774699999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4599,18 +4091,15 @@
         <v>6756.713</v>
       </c>
       <c r="G123" t="n">
-        <v>3654447.061699999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4632,18 +4121,15 @@
         <v>110010.0203</v>
       </c>
       <c r="G124" t="n">
-        <v>3544437.041399999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4665,18 +4151,15 @@
         <v>11028.1842</v>
       </c>
       <c r="G125" t="n">
-        <v>3533408.857199999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4698,18 +4181,15 @@
         <v>42944.1544</v>
       </c>
       <c r="G126" t="n">
-        <v>3533408.857199999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4731,18 +4211,15 @@
         <v>17361.193</v>
       </c>
       <c r="G127" t="n">
-        <v>3516047.664199999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4764,18 +4241,15 @@
         <v>130067.4711</v>
       </c>
       <c r="G128" t="n">
-        <v>3516047.664199999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4797,18 +4271,15 @@
         <v>2990.4259</v>
       </c>
       <c r="G129" t="n">
-        <v>3516047.664199999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4830,18 +4301,15 @@
         <v>96734.6415</v>
       </c>
       <c r="G130" t="n">
-        <v>3419313.022699999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4863,18 +4331,15 @@
         <v>31.6939</v>
       </c>
       <c r="G131" t="n">
-        <v>3419313.022699999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4896,18 +4361,15 @@
         <v>4166.4214</v>
       </c>
       <c r="G132" t="n">
-        <v>3415146.601299999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4929,18 +4391,15 @@
         <v>4068.1547</v>
       </c>
       <c r="G133" t="n">
-        <v>3419214.755999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4962,18 +4421,15 @@
         <v>101947.3126</v>
       </c>
       <c r="G134" t="n">
-        <v>3317267.443399999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4995,18 +4451,15 @@
         <v>106341.2327</v>
       </c>
       <c r="G135" t="n">
-        <v>3317267.443399999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5028,18 +4481,15 @@
         <v>4073.8473</v>
       </c>
       <c r="G136" t="n">
-        <v>3321341.290699999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
